--- a/data/Y_inventory_working.xlsx
+++ b/data/Y_inventory_working.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D670F3-BCFC-4988-8A09-733DA6715F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AE597-D191-4850-A8A5-09BC6F7167EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA5E6435-CCC8-4325-8D7B-F96E7D205BA8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="275">
   <si>
     <t>Y:\sde_wcgis_master (dfgjnusql-gi71p).sde\sde_wcgis_master.DBO.areanamesCurrent</t>
   </si>
@@ -774,9 +774,6 @@
     <t>rivers_maj</t>
   </si>
   <si>
-    <t>Arctic_cricle</t>
-  </si>
-  <si>
     <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\ARCTIC_CIRCLE.mdb\arctic_circle</t>
   </si>
   <si>
@@ -853,13 +850,25 @@
   </si>
   <si>
     <t>sub_coast</t>
+  </si>
+  <si>
+    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Data_toStow\arctic_circle.shp</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK_BASE version casues errors </t>
+  </si>
+  <si>
+    <t>arctic_circle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +880,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -893,16 +910,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1215,12 +1235,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839E316-BE17-4D06-9A89-F663D4A5EC12}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1252,7 @@
     <col min="5" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1249,10 +1269,13 @@
         <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1264,15 +1287,15 @@
         <v>222</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(ISERROR(FIND(".",C2)),C2,RIGHT(C2,LEN(C2)-
+        <f t="shared" ref="E2:E33" si="0">IF(ISERROR(FIND(".",C2)),C2,RIGHT(C2,LEN(C2)-
 FIND("~",SUBSTITUTE(C2,".","~",LEN(C2)-LEN(SUBSTITUTE(C2,".",""))))))</f>
         <v>areanamesCurrent</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1284,15 +1307,14 @@
         <v>222</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(ISERROR(FIND(".",C3)),C3,RIGHT(C3,LEN(C3)-
-FIND("~",SUBSTITUTE(C3,".","~",LEN(C3)-LEN(SUBSTITUTE(C3,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>gmu_links</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1304,15 +1326,14 @@
         <v>222</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(ISERROR(FIND(".",C4)),C4,RIGHT(C4,LEN(C4)-
-FIND("~",SUBSTITUTE(C4,".","~",LEN(C4)-LEN(SUBSTITUTE(C4,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>SDE_compress_log</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1326,15 +1347,14 @@
         <v>222</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(ISERROR(FIND(".",C5)),C5,RIGHT(C5,LEN(C5)-
-FIND("~",SUBSTITUTE(C5,".","~",LEN(C5)-LEN(SUBSTITUTE(C5,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>UCU_poly</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1348,15 +1368,14 @@
         <v>222</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(ISERROR(FIND(".",C6)),C6,RIGHT(C6,LEN(C6)-
-FIND("~",SUBSTITUTE(C6,".","~",LEN(C6)-LEN(SUBSTITUTE(C6,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>SpecialAreas</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1370,15 +1389,14 @@
         <v>222</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(ISERROR(FIND(".",C7)),C7,RIGHT(C7,LEN(C7)-
-FIND("~",SUBSTITUTE(C7,".","~",LEN(C7)-LEN(SUBSTITUTE(C7,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>DWCHunts</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1390,15 +1408,14 @@
         <v>222</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(ISERROR(FIND(".",C8)),C8,RIGHT(C8,LEN(C8)-
-FIND("~",SUBSTITUTE(C8,".","~",LEN(C8)-LEN(SUBSTITUTE(C8,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>DWCMasters_topology</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1412,15 +1429,14 @@
         <v>220</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(ISERROR(FIND(".",C9)),C9,RIGHT(C9,LEN(C9)-
-FIND("~",SUBSTITUTE(C9,".","~",LEN(C9)-LEN(SUBSTITUTE(C9,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>AK_SHADE</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1434,15 +1450,14 @@
         <v>220</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(ISERROR(FIND(".",C10)),C10,RIGHT(C10,LEN(C10)-
-FIND("~",SUBSTITUTE(C10,".","~",LEN(C10)-LEN(SUBSTITUTE(C10,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>DRG_ITM</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1456,15 +1471,14 @@
         <v>220</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(ISERROR(FIND(".",C11)),C11,RIGHT(C11,LEN(C11)-
-FIND("~",SUBSTITUTE(C11,".","~",LEN(C11)-LEN(SUBSTITUTE(C11,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>DRG_QM</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1476,15 +1490,14 @@
         <v>220</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(ISERROR(FIND(".",C12)),C12,RIGHT(C12,LEN(C12)-
-FIND("~",SUBSTITUTE(C12,".","~",LEN(C12)-LEN(SUBSTITUTE(C12,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_AGREEDEM08</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1498,15 +1511,14 @@
         <v>220</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(ISERROR(FIND(".",C13)),C13,RIGHT(C13,LEN(C13)-
-FIND("~",SUBSTITUTE(C13,".","~",LEN(C13)-LEN(SUBSTITUTE(C13,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_CLIP</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1518,15 +1530,14 @@
         <v>220</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(ISERROR(FIND(".",C14)),C14,RIGHT(C14,LEN(C14)-
-FIND("~",SUBSTITUTE(C14,".","~",LEN(C14)-LEN(SUBSTITUTE(C14,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_FILLSINKS08</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1538,15 +1549,14 @@
         <v>220</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(ISERROR(FIND(".",C15)),C15,RIGHT(C15,LEN(C15)-
-FIND("~",SUBSTITUTE(C15,".","~",LEN(C15)-LEN(SUBSTITUTE(C15,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_FLOWACC08</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1560,12 +1570,11 @@
         <v>220</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(ISERROR(FIND(".",C16)),C16,RIGHT(C16,LEN(C16)-
-FIND("~",SUBSTITUTE(C16,".","~",LEN(C16)-LEN(SUBSTITUTE(C16,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_FLOWDIR08</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1582,12 +1591,11 @@
         <v>220</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(ISERROR(FIND(".",C17)),C17,RIGHT(C17,LEN(C17)-
-FIND("~",SUBSTITUTE(C17,".","~",LEN(C17)-LEN(SUBSTITUTE(C17,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_HILLCLIP</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1602,12 +1610,11 @@
         <v>220</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(ISERROR(FIND(".",C18)),C18,RIGHT(C18,LEN(C18)-
-FIND("~",SUBSTITUTE(C18,".","~",LEN(C18)-LEN(SUBSTITUTE(C18,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_HILLRAW</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1622,12 +1629,11 @@
         <v>220</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(ISERROR(FIND(".",C19)),C19,RIGHT(C19,LEN(C19)-
-FIND("~",SUBSTITUTE(C19,".","~",LEN(C19)-LEN(SUBSTITUTE(C19,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NED_RAW</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,12 +1650,11 @@
         <v>220</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(ISERROR(FIND(".",C20)),C20,RIGHT(C20,LEN(C20)-
-FIND("~",SUBSTITUTE(C20,".","~",LEN(C20)-LEN(SUBSTITUTE(C20,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NGS_ITM_HILLSHADE_DD</v>
       </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1666,12 +1671,11 @@
         <v>220</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(ISERROR(FIND(".",C21)),C21,RIGHT(C21,LEN(C21)-
-FIND("~",SUBSTITUTE(C21,".","~",LEN(C21)-LEN(SUBSTITUTE(C21,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NGS_ITM_TOPO_DD</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1686,12 +1690,11 @@
         <v>220</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(ISERROR(FIND(".",C22)),C22,RIGHT(C22,LEN(C22)-
-FIND("~",SUBSTITUTE(C22,".","~",LEN(C22)-LEN(SUBSTITUTE(C22,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDWaterbodyToMeta</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,12 +1709,11 @@
         <v>220</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(ISERROR(FIND(".",C23)),C23,RIGHT(C23,LEN(C23)-
-FIND("~",SUBSTITUTE(C23,".","~",LEN(C23)-LEN(SUBSTITUTE(C23,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDPointEventFCToMeta</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1726,12 +1728,11 @@
         <v>220</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(ISERROR(FIND(".",C24)),C24,RIGHT(C24,LEN(C24)-
-FIND("~",SUBSTITUTE(C24,".","~",LEN(C24)-LEN(SUBSTITUTE(C24,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDPointToMeta</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,12 +1747,11 @@
         <v>220</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(ISERROR(FIND(".",C25)),C25,RIGHT(C25,LEN(C25)-
-FIND("~",SUBSTITUTE(C25,".","~",LEN(C25)-LEN(SUBSTITUTE(C25,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDMetadataHasSourceCitation</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,12 +1766,11 @@
         <v>220</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(ISERROR(FIND(".",C26)),C26,RIGHT(C26,LEN(C26)-
-FIND("~",SUBSTITUTE(C26,".","~",LEN(C26)-LEN(SUBSTITUTE(C26,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDMetaToFeature</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1786,12 +1785,11 @@
         <v>220</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(ISERROR(FIND(".",C27)),C27,RIGHT(C27,LEN(C27)-
-FIND("~",SUBSTITUTE(C27,".","~",LEN(C27)-LEN(SUBSTITUTE(C27,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDLineToMeta</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1806,12 +1804,11 @@
         <v>220</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(ISERROR(FIND(".",C28)),C28,RIGHT(C28,LEN(C28)-
-FIND("~",SUBSTITUTE(C28,".","~",LEN(C28)-LEN(SUBSTITUTE(C28,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDLineEventFCToMeta</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,12 +1823,11 @@
         <v>220</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(ISERROR(FIND(".",C29)),C29,RIGHT(C29,LEN(C29)-
-FIND("~",SUBSTITUTE(C29,".","~",LEN(C29)-LEN(SUBSTITUTE(C29,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDFlowlineToMeta</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,12 +1842,11 @@
         <v>220</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(ISERROR(FIND(".",C30)),C30,RIGHT(C30,LEN(C30)-
-FIND("~",SUBSTITUTE(C30,".","~",LEN(C30)-LEN(SUBSTITUTE(C30,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDAreaToMeta</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1866,12 +1861,11 @@
         <v>220</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(ISERROR(FIND(".",C31)),C31,RIGHT(C31,LEN(C31)-
-FIND("~",SUBSTITUTE(C31,".","~",LEN(C31)-LEN(SUBSTITUTE(C31,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDAreaEventFCToMeta</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,12 +1880,11 @@
         <v>220</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(ISERROR(FIND(".",C32)),C32,RIGHT(C32,LEN(C32)-
-FIND("~",SUBSTITUTE(C32,".","~",LEN(C32)-LEN(SUBSTITUTE(C32,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDVerticalRelationship</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,12 +1899,11 @@
         <v>220</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(ISERROR(FIND(".",C33)),C33,RIGHT(C33,LEN(C33)-
-FIND("~",SUBSTITUTE(C33,".","~",LEN(C33)-LEN(SUBSTITUTE(C33,".",""))))))</f>
+        <f t="shared" si="0"/>
         <v>NHDSourceCitation</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,12 +1918,12 @@
         <v>220</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(ISERROR(FIND(".",C34)),C34,RIGHT(C34,LEN(C34)-
+        <f t="shared" ref="E34:E65" si="1">IF(ISERROR(FIND(".",C34)),C34,RIGHT(C34,LEN(C34)-
 FIND("~",SUBSTITUTE(C34,".","~",LEN(C34)-LEN(SUBSTITUTE(C34,".",""))))))</f>
         <v>NHDStatus</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,12 +1938,11 @@
         <v>220</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(ISERROR(FIND(".",C35)),C35,RIGHT(C35,LEN(C35)-
-FIND("~",SUBSTITUTE(C35,".","~",LEN(C35)-LEN(SUBSTITUTE(C35,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDReachCode_ComID</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1966,12 +1957,11 @@
         <v>220</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(ISERROR(FIND(".",C36)),C36,RIGHT(C36,LEN(C36)-
-FIND("~",SUBSTITUTE(C36,".","~",LEN(C36)-LEN(SUBSTITUTE(C36,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDReachCrossReference</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,12 +1976,11 @@
         <v>220</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(ISERROR(FIND(".",C37)),C37,RIGHT(C37,LEN(C37)-
-FIND("~",SUBSTITUTE(C37,".","~",LEN(C37)-LEN(SUBSTITUTE(C37,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDProcessingParameters</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,12 +1995,11 @@
         <v>220</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(ISERROR(FIND(".",C38)),C38,RIGHT(C38,LEN(C38)-
-FIND("~",SUBSTITUTE(C38,".","~",LEN(C38)-LEN(SUBSTITUTE(C38,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDMetadata</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,12 +2014,11 @@
         <v>220</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(ISERROR(FIND(".",C39)),C39,RIGHT(C39,LEN(C39)-
-FIND("~",SUBSTITUTE(C39,".","~",LEN(C39)-LEN(SUBSTITUTE(C39,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDFlowlineVAA</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,12 +2033,11 @@
         <v>220</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(ISERROR(FIND(".",C40)),C40,RIGHT(C40,LEN(C40)-
-FIND("~",SUBSTITUTE(C40,".","~",LEN(C40)-LEN(SUBSTITUTE(C40,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDFlow</v>
       </c>
       <c r="F40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,12 +2052,11 @@
         <v>220</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(ISERROR(FIND(".",C41)),C41,RIGHT(C41,LEN(C41)-
-FIND("~",SUBSTITUTE(C41,".","~",LEN(C41)-LEN(SUBSTITUTE(C41,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDFeatureToMetadata</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2086,12 +2071,11 @@
         <v>220</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(ISERROR(FIND(".",C42)),C42,RIGHT(C42,LEN(C42)-
-FIND("~",SUBSTITUTE(C42,".","~",LEN(C42)-LEN(SUBSTITUTE(C42,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NHDFCode</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2106,12 +2090,11 @@
         <v>220</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(ISERROR(FIND(".",C43)),C43,RIGHT(C43,LEN(C43)-
-FIND("~",SUBSTITUTE(C43,".","~",LEN(C43)-LEN(SUBSTITUTE(C43,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>HYDRO_NET_BUILDERR</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,12 +2109,11 @@
         <v>220</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(ISERROR(FIND(".",C44)),C44,RIGHT(C44,LEN(C44)-
-FIND("~",SUBSTITUTE(C44,".","~",LEN(C44)-LEN(SUBSTITUTE(C44,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>ExternalIDCrosswalk</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,12 +2128,11 @@
         <v>220</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(ISERROR(FIND(".",C45)),C45,RIGHT(C45,LEN(C45)-
-FIND("~",SUBSTITUTE(C45,".","~",LEN(C45)-LEN(SUBSTITUTE(C45,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NGS_QM_ELEV_DD</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2168,12 +2149,11 @@
         <v>220</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(ISERROR(FIND(".",C46)),C46,RIGHT(C46,LEN(C46)-
-FIND("~",SUBSTITUTE(C46,".","~",LEN(C46)-LEN(SUBSTITUTE(C46,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>NGS_QM_TOPO_DD</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2188,12 +2168,11 @@
         <v>220</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(ISERROR(FIND(".",C47)),C47,RIGHT(C47,LEN(C47)-
-FIND("~",SUBSTITUTE(C47,".","~",LEN(C47)-LEN(SUBSTITUTE(C47,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>Russia</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2208,12 +2187,11 @@
         <v>220</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(ISERROR(FIND(".",C48)),C48,RIGHT(C48,LEN(C48)-
-FIND("~",SUBSTITUTE(C48,".","~",LEN(C48)-LEN(SUBSTITUTE(C48,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>AKLimitsDD</v>
       </c>
       <c r="F48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2228,12 +2206,11 @@
         <v>220</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(ISERROR(FIND(".",C49)),C49,RIGHT(C49,LEN(C49)-
-FIND("~",SUBSTITUTE(C49,".","~",LEN(C49)-LEN(SUBSTITUTE(C49,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>AK_shore_63k</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2248,12 +2225,11 @@
         <v>220</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(ISERROR(FIND(".",C50)),C50,RIGHT(C50,LEN(C50)-
-FIND("~",SUBSTITUTE(C50,".","~",LEN(C50)-LEN(SUBSTITUTE(C50,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>Canada</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2270,12 +2246,11 @@
         <v>220</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(ISERROR(FIND(".",C51)),C51,RIGHT(C51,LEN(C51)-
-FIND("~",SUBSTITUTE(C51,".","~",LEN(C51)-LEN(SUBSTITUTE(C51,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>AK_coast_ITM</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,12 +2265,11 @@
         <v>220</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(ISERROR(FIND(".",C52)),C52,RIGHT(C52,LEN(C52)-
-FIND("~",SUBSTITUTE(C52,".","~",LEN(C52)-LEN(SUBSTITUTE(C52,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>Canada_Russia</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2309,12 +2283,11 @@
         <v>220</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(ISERROR(FIND(".",C53)),C53,RIGHT(C53,LEN(C53)-
-FIND("~",SUBSTITUTE(C53,".","~",LEN(C53)-LEN(SUBSTITUTE(C53,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>AKLimits</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,12 +2302,11 @@
         <v>220</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(ISERROR(FIND(".",C54)),C54,RIGHT(C54,LEN(C54)-
-FIND("~",SUBSTITUTE(C54,".","~",LEN(C54)-LEN(SUBSTITUTE(C54,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>canada_prov</v>
       </c>
       <c r="F54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2349,12 +2321,11 @@
         <v>220</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(ISERROR(FIND(".",C55)),C55,RIGHT(C55,LEN(C55)-
-FIND("~",SUBSTITUTE(C55,".","~",LEN(C55)-LEN(SUBSTITUTE(C55,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>Admin_Large_Parcel</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2369,12 +2340,11 @@
         <v>220</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(ISERROR(FIND(".",C56)),C56,RIGHT(C56,LEN(C56)-
-FIND("~",SUBSTITUTE(C56,".","~",LEN(C56)-LEN(SUBSTITUTE(C56,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>StateLDA09</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2391,12 +2361,11 @@
         <v>220</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(ISERROR(FIND(".",C57)),C57,RIGHT(C57,LEN(C57)-
-FIND("~",SUBSTITUTE(C57,".","~",LEN(C57)-LEN(SUBSTITUTE(C57,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>placenames_AKGNIS</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2413,12 +2382,11 @@
         <v>220</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(ISERROR(FIND(".",C58)),C58,RIGHT(C58,LEN(C58)-
-FIND("~",SUBSTITUTE(C58,".","~",LEN(C58)-LEN(SUBSTITUTE(C58,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>placenames_orth</v>
       </c>
       <c r="F58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2435,12 +2403,11 @@
         <v>220</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(ISERROR(FIND(".",C59)),C59,RIGHT(C59,LEN(C59)-
-FIND("~",SUBSTITUTE(C59,".","~",LEN(C59)-LEN(SUBSTITUTE(C59,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>dot_centerline_milepost</v>
       </c>
       <c r="F59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,12 +2424,11 @@
         <v>220</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(ISERROR(FIND(".",C60)),C60,RIGHT(C60,LEN(C60)-
-FIND("~",SUBSTITUTE(C60,".","~",LEN(C60)-LEN(SUBSTITUTE(C60,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>rescomm</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2479,12 +2445,11 @@
         <v>220</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(ISERROR(FIND(".",C61)),C61,RIGHT(C61,LEN(C61)-
-FIND("~",SUBSTITUTE(C61,".","~",LEN(C61)-LEN(SUBSTITUTE(C61,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>dot_centerline_route</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2501,12 +2466,11 @@
         <v>220</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(ISERROR(FIND(".",C62)),C62,RIGHT(C62,LEN(C62)-
-FIND("~",SUBSTITUTE(C62,".","~",LEN(C62)-LEN(SUBSTITUTE(C62,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>simplgps_akhwys</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2521,12 +2485,11 @@
         <v>220</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(ISERROR(FIND(".",C63)),C63,RIGHT(C63,LEN(C63)-
-FIND("~",SUBSTITUTE(C63,".","~",LEN(C63)-LEN(SUBSTITUTE(C63,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>section_label</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,12 +2504,11 @@
         <v>220</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(ISERROR(FIND(".",C64)),C64,RIGHT(C64,LEN(C64)-
-FIND("~",SUBSTITUTE(C64,".","~",LEN(C64)-LEN(SUBSTITUTE(C64,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>ranges</v>
       </c>
       <c r="F64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,12 +2523,11 @@
         <v>220</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(ISERROR(FIND(".",C65)),C65,RIGHT(C65,LEN(C65)-
-FIND("~",SUBSTITUTE(C65,".","~",LEN(C65)-LEN(SUBSTITUTE(C65,".",""))))))</f>
+        <f t="shared" si="1"/>
         <v>townships</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,12 +2544,12 @@
         <v>220</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(ISERROR(FIND(".",C66)),C66,RIGHT(C66,LEN(C66)-
+        <f t="shared" ref="E66:E97" si="2">IF(ISERROR(FIND(".",C66)),C66,RIGHT(C66,LEN(C66)-
 FIND("~",SUBSTITUTE(C66,".","~",LEN(C66)-LEN(SUBSTITUTE(C66,".",""))))))</f>
         <v>section_polygon</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,12 +2564,11 @@
         <v>220</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(ISERROR(FIND(".",C67)),C67,RIGHT(C67,LEN(C67)-
-FIND("~",SUBSTITUTE(C67,".","~",LEN(C67)-LEN(SUBSTITUTE(C67,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>section_arc</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,12 +2583,11 @@
         <v>220</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(ISERROR(FIND(".",C68)),C68,RIGHT(C68,LEN(C68)-
-FIND("~",SUBSTITUTE(C68,".","~",LEN(C68)-LEN(SUBSTITUTE(C68,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township_bands</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,12 +2602,11 @@
         <v>220</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(ISERROR(FIND(".",C69)),C69,RIGHT(C69,LEN(C69)-
-FIND("~",SUBSTITUTE(C69,".","~",LEN(C69)-LEN(SUBSTITUTE(C69,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township_node</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,12 +2621,11 @@
         <v>220</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(ISERROR(FIND(".",C70)),C70,RIGHT(C70,LEN(C70)-
-FIND("~",SUBSTITUTE(C70,".","~",LEN(C70)-LEN(SUBSTITUTE(C70,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township_arc</v>
       </c>
       <c r="F70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,12 +2640,11 @@
         <v>220</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(ISERROR(FIND(".",C71)),C71,RIGHT(C71,LEN(C71)-
-FIND("~",SUBSTITUTE(C71,".","~",LEN(C71)-LEN(SUBSTITUTE(C71,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>meridians</v>
       </c>
       <c r="F71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,12 +2659,11 @@
         <v>220</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(ISERROR(FIND(".",C72)),C72,RIGHT(C72,LEN(C72)-
-FIND("~",SUBSTITUTE(C72,".","~",LEN(C72)-LEN(SUBSTITUTE(C72,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>sections</v>
       </c>
       <c r="F72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,12 +2678,11 @@
         <v>220</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(ISERROR(FIND(".",C73)),C73,RIGHT(C73,LEN(C73)-
-FIND("~",SUBSTITUTE(C73,".","~",LEN(C73)-LEN(SUBSTITUTE(C73,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>itmquads</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,12 +2697,11 @@
         <v>220</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(ISERROR(FIND(".",C74)),C74,RIGHT(C74,LEN(C74)-
-FIND("~",SUBSTITUTE(C74,".","~",LEN(C74)-LEN(SUBSTITUTE(C74,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>usgs25Kquads</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,12 +2716,11 @@
         <v>220</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(ISERROR(FIND(".",C75)),C75,RIGHT(C75,LEN(C75)-
-FIND("~",SUBSTITUTE(C75,".","~",LEN(C75)-LEN(SUBSTITUTE(C75,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>qmquads</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,12 +2735,11 @@
         <v>220</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(ISERROR(FIND(".",C76)),C76,RIGHT(C76,LEN(C76)-
-FIND("~",SUBSTITUTE(C76,".","~",LEN(C76)-LEN(SUBSTITUTE(C76,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township_polygon</v>
       </c>
       <c r="F76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,12 +2754,11 @@
         <v>220</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(ISERROR(FIND(".",C77)),C77,RIGHT(C77,LEN(C77)-
-FIND("~",SUBSTITUTE(C77,".","~",LEN(C77)-LEN(SUBSTITUTE(C77,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>protracted_pts</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,12 +2773,11 @@
         <v>220</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(ISERROR(FIND(".",C78)),C78,RIGHT(C78,LEN(C78)-
-FIND("~",SUBSTITUTE(C78,".","~",LEN(C78)-LEN(SUBSTITUTE(C78,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township_label</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,12 +2792,11 @@
         <v>220</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(ISERROR(FIND(".",C79)),C79,RIGHT(C79,LEN(C79)-
-FIND("~",SUBSTITUTE(C79,".","~",LEN(C79)-LEN(SUBSTITUTE(C79,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>pro_pt</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2865,12 +2813,11 @@
         <v>220</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(ISERROR(FIND(".",C80)),C80,RIGHT(C80,LEN(C80)-
-FIND("~",SUBSTITUTE(C80,".","~",LEN(C80)-LEN(SUBSTITUTE(C80,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>township</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,12 +2832,11 @@
         <v>220</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(ISERROR(FIND(".",C81)),C81,RIGHT(C81,LEN(C81)-
-FIND("~",SUBSTITUTE(C81,".","~",LEN(C81)-LEN(SUBSTITUTE(C81,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>section</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2905,12 +2851,11 @@
         <v>220</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(ISERROR(FIND(".",C82)),C82,RIGHT(C82,LEN(C82)-
-FIND("~",SUBSTITUTE(C82,".","~",LEN(C82)-LEN(SUBSTITUTE(C82,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>TopoAreaFeature</v>
       </c>
       <c r="F82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,12 +2870,11 @@
         <v>220</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(ISERROR(FIND(".",C83)),C83,RIGHT(C83,LEN(C83)-
-FIND("~",SUBSTITUTE(C83,".","~",LEN(C83)-LEN(SUBSTITUTE(C83,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>TransportationAreaFeature</v>
       </c>
       <c r="F83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,12 +2889,11 @@
         <v>220</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(ISERROR(FIND(".",C84)),C84,RIGHT(C84,LEN(C84)-
-FIND("~",SUBSTITUTE(C84,".","~",LEN(C84)-LEN(SUBSTITUTE(C84,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>RadioRadarEquipmentFeature</v>
       </c>
       <c r="F84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2965,12 +2908,11 @@
         <v>220</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(ISERROR(FIND(".",C85)),C85,RIGHT(C85,LEN(C85)-
-FIND("~",SUBSTITUTE(C85,".","~",LEN(C85)-LEN(SUBSTITUTE(C85,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>BerthPointFeature</v>
       </c>
       <c r="F85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,12 +2927,11 @@
         <v>220</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(ISERROR(FIND(".",C86)),C86,RIGHT(C86,LEN(C86)-
-FIND("~",SUBSTITUTE(C86,".","~",LEN(C86)-LEN(SUBSTITUTE(C86,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>SignalEquipmentFeature</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3005,12 +2946,11 @@
         <v>220</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(ISERROR(FIND(".",C87)),C87,RIGHT(C87,LEN(C87)-
-FIND("~",SUBSTITUTE(C87,".","~",LEN(C87)-LEN(SUBSTITUTE(C87,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>BeaconFeature</v>
       </c>
       <c r="F87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,12 +2965,11 @@
         <v>220</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(ISERROR(FIND(".",C88)),C88,RIGHT(C88,LEN(C88)-
-FIND("~",SUBSTITUTE(C88,".","~",LEN(C88)-LEN(SUBSTITUTE(C88,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>BerthLineFeature</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3045,12 +2984,11 @@
         <v>220</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(ISERROR(FIND(".",C89)),C89,RIGHT(C89,LEN(C89)-
-FIND("~",SUBSTITUTE(C89,".","~",LEN(C89)-LEN(SUBSTITUTE(C89,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>NavigationPointFeature</v>
       </c>
       <c r="F89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3065,12 +3003,11 @@
         <v>220</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(ISERROR(FIND(".",C90)),C90,RIGHT(C90,LEN(C90)-
-FIND("~",SUBSTITUTE(C90,".","~",LEN(C90)-LEN(SUBSTITUTE(C90,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>UtilityAreaFeature</v>
       </c>
       <c r="F90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3085,12 +3022,11 @@
         <v>220</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(ISERROR(FIND(".",C91)),C91,RIGHT(C91,LEN(C91)-
-FIND("~",SUBSTITUTE(C91,".","~",LEN(C91)-LEN(SUBSTITUTE(C91,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>CautionAreaFeature</v>
       </c>
       <c r="F91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3105,12 +3041,11 @@
         <v>220</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(ISERROR(FIND(".",C92)),C92,RIGHT(C92,LEN(C92)-
-FIND("~",SUBSTITUTE(C92,".","~",LEN(C92)-LEN(SUBSTITUTE(C92,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>MagneticPointFeature</v>
       </c>
       <c r="F92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,12 +3060,11 @@
         <v>220</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(ISERROR(FIND(".",C93)),C93,RIGHT(C93,LEN(C93)-
-FIND("~",SUBSTITUTE(C93,".","~",LEN(C93)-LEN(SUBSTITUTE(C93,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>FacilityPointFeature</v>
       </c>
       <c r="F93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3145,12 +3079,11 @@
         <v>220</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(ISERROR(FIND(".",C94)),C94,RIGHT(C94,LEN(C94)-
-FIND("~",SUBSTITUTE(C94,".","~",LEN(C94)-LEN(SUBSTITUTE(C94,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>DepthLineFeature</v>
       </c>
       <c r="F94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,12 +3098,11 @@
         <v>220</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(ISERROR(FIND(".",C95)),C95,RIGHT(C95,LEN(C95)-
-FIND("~",SUBSTITUTE(C95,".","~",LEN(C95)-LEN(SUBSTITUTE(C95,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>GatePointFeature</v>
       </c>
       <c r="F95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,12 +3117,11 @@
         <v>220</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(ISERROR(FIND(".",C96)),C96,RIGHT(C96,LEN(C96)-
-FIND("~",SUBSTITUTE(C96,".","~",LEN(C96)-LEN(SUBSTITUTE(C96,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>DockLineFeature</v>
       </c>
       <c r="F96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,12 +3136,11 @@
         <v>220</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(ISERROR(FIND(".",C97)),C97,RIGHT(C97,LEN(C97)-
-FIND("~",SUBSTITUTE(C97,".","~",LEN(C97)-LEN(SUBSTITUTE(C97,".",""))))))</f>
+        <f t="shared" si="2"/>
         <v>ControlMarkFeature</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,12 +3155,12 @@
         <v>220</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(ISERROR(FIND(".",C98)),C98,RIGHT(C98,LEN(C98)-
+        <f t="shared" ref="E98:E129" si="3">IF(ISERROR(FIND(".",C98)),C98,RIGHT(C98,LEN(C98)-
 FIND("~",SUBSTITUTE(C98,".","~",LEN(C98)-LEN(SUBSTITUTE(C98,".",""))))))</f>
         <v>DepthAreaFeature</v>
       </c>
       <c r="F98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3245,12 +3175,11 @@
         <v>220</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(ISERROR(FIND(".",C99)),C99,RIGHT(C99,LEN(C99)-
-FIND("~",SUBSTITUTE(C99,".","~",LEN(C99)-LEN(SUBSTITUTE(C99,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>TransportationPointFeature</v>
       </c>
       <c r="F99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3265,12 +3194,11 @@
         <v>220</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(ISERROR(FIND(".",C100)),C100,RIGHT(C100,LEN(C100)-
-FIND("~",SUBSTITUTE(C100,".","~",LEN(C100)-LEN(SUBSTITUTE(C100,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>DockAreaFeature</v>
       </c>
       <c r="F100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3285,12 +3213,11 @@
         <v>220</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(ISERROR(FIND(".",C101)),C101,RIGHT(C101,LEN(C101)-
-FIND("~",SUBSTITUTE(C101,".","~",LEN(C101)-LEN(SUBSTITUTE(C101,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>TransportationLineFeature</v>
       </c>
       <c r="F101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3305,12 +3232,11 @@
         <v>220</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(ISERROR(FIND(".",C102)),C102,RIGHT(C102,LEN(C102)-
-FIND("~",SUBSTITUTE(C102,".","~",LEN(C102)-LEN(SUBSTITUTE(C102,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>UtilityLineFeature</v>
       </c>
       <c r="F102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3325,12 +3251,11 @@
         <v>220</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(ISERROR(FIND(".",C103)),C103,RIGHT(C103,LEN(C103)-
-FIND("~",SUBSTITUTE(C103,".","~",LEN(C103)-LEN(SUBSTITUTE(C103,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>NavigationLineFeature</v>
       </c>
       <c r="F103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,12 +3270,11 @@
         <v>220</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(ISERROR(FIND(".",C104)),C104,RIGHT(C104,LEN(C104)-
-FIND("~",SUBSTITUTE(C104,".","~",LEN(C104)-LEN(SUBSTITUTE(C104,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>CoastlineFeature</v>
       </c>
       <c r="F104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3365,12 +3289,11 @@
         <v>220</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(ISERROR(FIND(".",C105)),C105,RIGHT(C105,LEN(C105)-
-FIND("~",SUBSTITUTE(C105,".","~",LEN(C105)-LEN(SUBSTITUTE(C105,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>RadioRadarSignalFeature</v>
       </c>
       <c r="F105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3385,12 +3308,11 @@
         <v>220</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(ISERROR(FIND(".",C106)),C106,RIGHT(C106,LEN(C106)-
-FIND("~",SUBSTITUTE(C106,".","~",LEN(C106)-LEN(SUBSTITUTE(C106,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>FacilityLineFeature</v>
       </c>
       <c r="F106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3405,12 +3327,11 @@
         <v>220</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(ISERROR(FIND(".",C107)),C107,RIGHT(C107,LEN(C107)-
-FIND("~",SUBSTITUTE(C107,".","~",LEN(C107)-LEN(SUBSTITUTE(C107,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>CoastlinePointFeature</v>
       </c>
       <c r="F107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,12 +3346,11 @@
         <v>220</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(ISERROR(FIND(".",C108)),C108,RIGHT(C108,LEN(C108)-
-FIND("~",SUBSTITUTE(C108,".","~",LEN(C108)-LEN(SUBSTITUTE(C108,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>RegulatedZoneLineFeature</v>
       </c>
       <c r="F108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3445,12 +3365,11 @@
         <v>220</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(ISERROR(FIND(".",C109)),C109,RIGHT(C109,LEN(C109)-
-FIND("~",SUBSTITUTE(C109,".","~",LEN(C109)-LEN(SUBSTITUTE(C109,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>NavigationAreaFeature</v>
       </c>
       <c r="F109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3465,12 +3384,11 @@
         <v>220</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(ISERROR(FIND(".",C110)),C110,RIGHT(C110,LEN(C110)-
-FIND("~",SUBSTITUTE(C110,".","~",LEN(C110)-LEN(SUBSTITUTE(C110,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>FacilityAreaFeature</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3485,12 +3403,11 @@
         <v>220</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(ISERROR(FIND(".",C111)),C111,RIGHT(C111,LEN(C111)-
-FIND("~",SUBSTITUTE(C111,".","~",LEN(C111)-LEN(SUBSTITUTE(C111,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>TopoPointFeature</v>
       </c>
       <c r="F111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3505,12 +3422,11 @@
         <v>220</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(ISERROR(FIND(".",C112)),C112,RIGHT(C112,LEN(C112)-
-FIND("~",SUBSTITUTE(C112,".","~",LEN(C112)-LEN(SUBSTITUTE(C112,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>UtilityPointFeature</v>
       </c>
       <c r="F112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3525,12 +3441,11 @@
         <v>220</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(ISERROR(FIND(".",C113)),C113,RIGHT(C113,LEN(C113)-
-FIND("~",SUBSTITUTE(C113,".","~",LEN(C113)-LEN(SUBSTITUTE(C113,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>NauticalPublicationFeature</v>
       </c>
       <c r="F113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3545,12 +3460,11 @@
         <v>220</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(ISERROR(FIND(".",C114)),C114,RIGHT(C114,LEN(C114)-
-FIND("~",SUBSTITUTE(C114,".","~",LEN(C114)-LEN(SUBSTITUTE(C114,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>CoastlineAreaFeature</v>
       </c>
       <c r="F114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3565,12 +3479,11 @@
         <v>220</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(ISERROR(FIND(".",C115)),C115,RIGHT(C115,LEN(C115)-
-FIND("~",SUBSTITUTE(C115,".","~",LEN(C115)-LEN(SUBSTITUTE(C115,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>RegulatedZonePointFeature</v>
       </c>
       <c r="F115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3585,12 +3498,11 @@
         <v>220</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(ISERROR(FIND(".",C116)),C116,RIGHT(C116,LEN(C116)-
-FIND("~",SUBSTITUTE(C116,".","~",LEN(C116)-LEN(SUBSTITUTE(C116,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>BuoyFeature</v>
       </c>
       <c r="F116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3605,12 +3517,11 @@
         <v>220</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(ISERROR(FIND(".",C117)),C117,RIGHT(C117,LEN(C117)-
-FIND("~",SUBSTITUTE(C117,".","~",LEN(C117)-LEN(SUBSTITUTE(C117,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>LightStructureFeature</v>
       </c>
       <c r="F117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,12 +3536,11 @@
         <v>220</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(ISERROR(FIND(".",C118)),C118,RIGHT(C118,LEN(C118)-
-FIND("~",SUBSTITUTE(C118,".","~",LEN(C118)-LEN(SUBSTITUTE(C118,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>MagneticLineFeature</v>
       </c>
       <c r="F118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3645,12 +3555,11 @@
         <v>220</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(ISERROR(FIND(".",C119)),C119,RIGHT(C119,LEN(C119)-
-FIND("~",SUBSTITUTE(C119,".","~",LEN(C119)-LEN(SUBSTITUTE(C119,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>SurveyReliabilityFeature</v>
       </c>
       <c r="F119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3665,12 +3574,11 @@
         <v>220</v>
       </c>
       <c r="E120" t="str">
-        <f>IF(ISERROR(FIND(".",C120)),C120,RIGHT(C120,LEN(C120)-
-FIND("~",SUBSTITUTE(C120,".","~",LEN(C120)-LEN(SUBSTITUTE(C120,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>CautionPointFeature</v>
       </c>
       <c r="F120" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3685,12 +3593,11 @@
         <v>220</v>
       </c>
       <c r="E121" t="str">
-        <f>IF(ISERROR(FIND(".",C121)),C121,RIGHT(C121,LEN(C121)-
-FIND("~",SUBSTITUTE(C121,".","~",LEN(C121)-LEN(SUBSTITUTE(C121,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>MagneticAreaFeature</v>
       </c>
       <c r="F121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3705,12 +3612,11 @@
         <v>220</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(ISERROR(FIND(".",C122)),C122,RIGHT(C122,LEN(C122)-
-FIND("~",SUBSTITUTE(C122,".","~",LEN(C122)-LEN(SUBSTITUTE(C122,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>RegulatedZoneAreaFeature</v>
       </c>
       <c r="F122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,12 +3631,11 @@
         <v>220</v>
       </c>
       <c r="E123" t="str">
-        <f>IF(ISERROR(FIND(".",C123)),C123,RIGHT(C123,LEN(C123)-
-FIND("~",SUBSTITUTE(C123,".","~",LEN(C123)-LEN(SUBSTITUTE(C123,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>BerthAreaFeature</v>
       </c>
       <c r="F123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3745,12 +3650,11 @@
         <v>220</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(ISERROR(FIND(".",C124)),C124,RIGHT(C124,LEN(C124)-
-FIND("~",SUBSTITUTE(C124,".","~",LEN(C124)-LEN(SUBSTITUTE(C124,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>TopoLineFeature</v>
       </c>
       <c r="F124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3765,12 +3669,11 @@
         <v>220</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(ISERROR(FIND(".",C125)),C125,RIGHT(C125,LEN(C125)-
-FIND("~",SUBSTITUTE(C125,".","~",LEN(C125)-LEN(SUBSTITUTE(C125,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>RadarRangeFeature</v>
       </c>
       <c r="F125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3785,12 +3688,11 @@
         <v>220</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(ISERROR(FIND(".",C126)),C126,RIGHT(C126,LEN(C126)-
-FIND("~",SUBSTITUTE(C126,".","~",LEN(C126)-LEN(SUBSTITUTE(C126,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>CautionLineFeature</v>
       </c>
       <c r="F126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3805,12 +3707,11 @@
         <v>220</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(ISERROR(FIND(".",C127)),C127,RIGHT(C127,LEN(C127)-
-FIND("~",SUBSTITUTE(C127,".","~",LEN(C127)-LEN(SUBSTITUTE(C127,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>MetaDataFeature</v>
       </c>
       <c r="F127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,12 +3726,11 @@
         <v>220</v>
       </c>
       <c r="E128" t="str">
-        <f>IF(ISERROR(FIND(".",C128)),C128,RIGHT(C128,LEN(C128)-
-FIND("~",SUBSTITUTE(C128,".","~",LEN(C128)-LEN(SUBSTITUTE(C128,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>WBD_HU16</v>
       </c>
       <c r="F128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3845,12 +3745,11 @@
         <v>220</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(ISERROR(FIND(".",C129)),C129,RIGHT(C129,LEN(C129)-
-FIND("~",SUBSTITUTE(C129,".","~",LEN(C129)-LEN(SUBSTITUTE(C129,".",""))))))</f>
+        <f t="shared" si="3"/>
         <v>WBD_HU10</v>
       </c>
       <c r="F129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3865,12 +3764,12 @@
         <v>220</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(ISERROR(FIND(".",C130)),C130,RIGHT(C130,LEN(C130)-
+        <f t="shared" ref="E130:E145" si="4">IF(ISERROR(FIND(".",C130)),C130,RIGHT(C130,LEN(C130)-
 FIND("~",SUBSTITUTE(C130,".","~",LEN(C130)-LEN(SUBSTITUTE(C130,".",""))))))</f>
         <v>WBD_HU6</v>
       </c>
       <c r="F130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3885,12 +3784,11 @@
         <v>220</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(ISERROR(FIND(".",C131)),C131,RIGHT(C131,LEN(C131)-
-FIND("~",SUBSTITUTE(C131,".","~",LEN(C131)-LEN(SUBSTITUTE(C131,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>WBD_HU4</v>
       </c>
       <c r="F131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3905,12 +3803,11 @@
         <v>220</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(ISERROR(FIND(".",C132)),C132,RIGHT(C132,LEN(C132)-
-FIND("~",SUBSTITUTE(C132,".","~",LEN(C132)-LEN(SUBSTITUTE(C132,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>WBD_HU8</v>
       </c>
       <c r="F132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,12 +3822,11 @@
         <v>220</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(ISERROR(FIND(".",C133)),C133,RIGHT(C133,LEN(C133)-
-FIND("~",SUBSTITUTE(C133,".","~",LEN(C133)-LEN(SUBSTITUTE(C133,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>WBD_HU12</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3945,12 +3841,11 @@
         <v>220</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(ISERROR(FIND(".",C134)),C134,RIGHT(C134,LEN(C134)-
-FIND("~",SUBSTITUTE(C134,".","~",LEN(C134)-LEN(SUBSTITUTE(C134,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>WBD_HU14</v>
       </c>
       <c r="F134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3965,12 +3860,11 @@
         <v>220</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(ISERROR(FIND(".",C135)),C135,RIGHT(C135,LEN(C135)-
-FIND("~",SUBSTITUTE(C135,".","~",LEN(C135)-LEN(SUBSTITUTE(C135,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>WBD_HU2</v>
       </c>
       <c r="F135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3985,12 +3879,11 @@
         <v>220</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(ISERROR(FIND(".",C136)),C136,RIGHT(C136,LEN(C136)-
-FIND("~",SUBSTITUTE(C136,".","~",LEN(C136)-LEN(SUBSTITUTE(C136,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDAreaEventFC</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4005,12 +3898,11 @@
         <v>220</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(ISERROR(FIND(".",C137)),C137,RIGHT(C137,LEN(C137)-
-FIND("~",SUBSTITUTE(C137,".","~",LEN(C137)-LEN(SUBSTITUTE(C137,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDPointEventFC</v>
       </c>
       <c r="F137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4025,12 +3917,11 @@
         <v>220</v>
       </c>
       <c r="E138" t="str">
-        <f>IF(ISERROR(FIND(".",C138)),C138,RIGHT(C138,LEN(C138)-
-FIND("~",SUBSTITUTE(C138,".","~",LEN(C138)-LEN(SUBSTITUTE(C138,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDLine</v>
       </c>
       <c r="F138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4047,12 +3938,11 @@
         <v>220</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(ISERROR(FIND(".",C139)),C139,RIGHT(C139,LEN(C139)-
-FIND("~",SUBSTITUTE(C139,".","~",LEN(C139)-LEN(SUBSTITUTE(C139,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDArea</v>
       </c>
       <c r="F139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4067,12 +3957,11 @@
         <v>220</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(ISERROR(FIND(".",C140)),C140,RIGHT(C140,LEN(C140)-
-FIND("~",SUBSTITUTE(C140,".","~",LEN(C140)-LEN(SUBSTITUTE(C140,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>HYDRO_NET_Junctions</v>
       </c>
       <c r="F140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4089,12 +3978,11 @@
         <v>220</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(ISERROR(FIND(".",C141)),C141,RIGHT(C141,LEN(C141)-
-FIND("~",SUBSTITUTE(C141,".","~",LEN(C141)-LEN(SUBSTITUTE(C141,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDFlowline</v>
       </c>
       <c r="F141" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4109,12 +3997,11 @@
         <v>220</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(ISERROR(FIND(".",C142)),C142,RIGHT(C142,LEN(C142)-
-FIND("~",SUBSTITUTE(C142,".","~",LEN(C142)-LEN(SUBSTITUTE(C142,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDLineEventFC</v>
       </c>
       <c r="F142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4131,12 +4018,11 @@
         <v>220</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(ISERROR(FIND(".",C143)),C143,RIGHT(C143,LEN(C143)-
-FIND("~",SUBSTITUTE(C143,".","~",LEN(C143)-LEN(SUBSTITUTE(C143,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDWaterbody</v>
       </c>
       <c r="F143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4151,12 +4037,11 @@
         <v>220</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(ISERROR(FIND(".",C144)),C144,RIGHT(C144,LEN(C144)-
-FIND("~",SUBSTITUTE(C144,".","~",LEN(C144)-LEN(SUBSTITUTE(C144,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>NHDPoint</v>
       </c>
       <c r="F144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4171,12 +4056,11 @@
         <v>220</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(ISERROR(FIND(".",C145)),C145,RIGHT(C145,LEN(C145)-
-FIND("~",SUBSTITUTE(C145,".","~",LEN(C145)-LEN(SUBSTITUTE(C145,".",""))))))</f>
+        <f t="shared" si="4"/>
         <v>HYDRO_NET</v>
       </c>
       <c r="F145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4191,12 +4075,12 @@
         <v>221</v>
       </c>
       <c r="E146" t="str">
-        <f>IF(ISERROR(FIND("\",C146)),C146,RIGHT(C146,LEN(C146)-
+        <f t="shared" ref="E146:E177" si="5">IF(ISERROR(FIND("\",C146)),C146,RIGHT(C146,LEN(C146)-
 FIND("~",SUBSTITUTE(C146,"\","~",LEN(C146)-LEN(SUBSTITUTE(C146,"\",""))))))</f>
         <v>gmu_links</v>
       </c>
       <c r="F146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4211,12 +4095,11 @@
         <v>221</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(ISERROR(FIND("\",C147)),C147,RIGHT(C147,LEN(C147)-
-FIND("~",SUBSTITUTE(C147,"\","~",LEN(C147)-LEN(SUBSTITUTE(C147,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>leftpoly</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,12 +4114,11 @@
         <v>221</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(ISERROR(FIND("\",C148)),C148,RIGHT(C148,LEN(C148)-
-FIND("~",SUBSTITUTE(C148,"\","~",LEN(C148)-LEN(SUBSTITUTE(C148,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>rightpoly</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4253,12 +4135,11 @@
         <v>221</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(ISERROR(FIND("\",C149)),C149,RIGHT(C149,LEN(C149)-
-FIND("~",SUBSTITUTE(C149,"\","~",LEN(C149)-LEN(SUBSTITUTE(C149,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_poly</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,12 +4156,11 @@
         <v>221</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(ISERROR(FIND("\",C150)),C150,RIGHT(C150,LEN(C150)-
-FIND("~",SUBSTITUTE(C150,"\","~",LEN(C150)-LEN(SUBSTITUTE(C150,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>DWCHunts</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4297,12 +4177,11 @@
         <v>221</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(ISERROR(FIND("\",C151)),C151,RIGHT(C151,LEN(C151)-
-FIND("~",SUBSTITUTE(C151,"\","~",LEN(C151)-LEN(SUBSTITUTE(C151,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>SpecialAreas</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4317,12 +4196,11 @@
         <v>221</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(ISERROR(FIND("\",C152)),C152,RIGHT(C152,LEN(C152)-
-FIND("~",SUBSTITUTE(C152,"\","~",LEN(C152)-LEN(SUBSTITUTE(C152,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_arc</v>
       </c>
       <c r="F152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4339,12 +4217,11 @@
         <v>221</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(ISERROR(FIND("\",C153)),C153,RIGHT(C153,LEN(C153)-
-FIND("~",SUBSTITUTE(C153,"\","~",LEN(C153)-LEN(SUBSTITUTE(C153,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Regions</v>
       </c>
       <c r="F153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4359,12 +4236,11 @@
         <v>221</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(ISERROR(FIND("\",C154)),C154,RIGHT(C154,LEN(C154)-
-FIND("~",SUBSTITUTE(C154,"\","~",LEN(C154)-LEN(SUBSTITUTE(C154,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Regions_coast</v>
       </c>
       <c r="F154" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4381,12 +4257,11 @@
         <v>221</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(ISERROR(FIND("\",C155)),C155,RIGHT(C155,LEN(C155)-
-FIND("~",SUBSTITUTE(C155,"\","~",LEN(C155)-LEN(SUBSTITUTE(C155,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>GMU</v>
       </c>
       <c r="F155" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4401,12 +4276,11 @@
         <v>221</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(ISERROR(FIND("\",C156)),C156,RIGHT(C156,LEN(C156)-
-FIND("~",SUBSTITUTE(C156,"\","~",LEN(C156)-LEN(SUBSTITUTE(C156,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>GMU_coast</v>
       </c>
       <c r="F156" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,12 +4297,11 @@
         <v>221</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(ISERROR(FIND("\",C157)),C157,RIGHT(C157,LEN(C157)-
-FIND("~",SUBSTITUTE(C157,"\","~",LEN(C157)-LEN(SUBSTITUTE(C157,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Subunits</v>
       </c>
       <c r="F157" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4436,7 +4309,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C158" t="s">
         <v>156</v>
@@ -4445,12 +4318,11 @@
         <v>221</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(ISERROR(FIND("\",C158)),C158,RIGHT(C158,LEN(C158)-
-FIND("~",SUBSTITUTE(C158,"\","~",LEN(C158)-LEN(SUBSTITUTE(C158,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Subunits_coast</v>
       </c>
       <c r="F158" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4465,12 +4337,11 @@
         <v>221</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(ISERROR(FIND("\",C159)),C159,RIGHT(C159,LEN(C159)-
-FIND("~",SUBSTITUTE(C159,"\","~",LEN(C159)-LEN(SUBSTITUTE(C159,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>MajorDrainage</v>
       </c>
       <c r="F159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4485,12 +4356,11 @@
         <v>221</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(ISERROR(FIND("\",C160)),C160,RIGHT(C160,LEN(C160)-
-FIND("~",SUBSTITUTE(C160,"\","~",LEN(C160)-LEN(SUBSTITUTE(C160,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>MajorDrainage_coast</v>
       </c>
       <c r="F160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4505,12 +4375,11 @@
         <v>221</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(ISERROR(FIND("\",C161)),C161,RIGHT(C161,LEN(C161)-
-FIND("~",SUBSTITUTE(C161,"\","~",LEN(C161)-LEN(SUBSTITUTE(C161,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>SubMajor</v>
       </c>
       <c r="F161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4525,12 +4394,11 @@
         <v>221</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(ISERROR(FIND("\",C162)),C162,RIGHT(C162,LEN(C162)-
-FIND("~",SUBSTITUTE(C162,"\","~",LEN(C162)-LEN(SUBSTITUTE(C162,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>SubMajor_coast</v>
       </c>
       <c r="F162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4545,12 +4413,11 @@
         <v>221</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(ISERROR(FIND("\",C163)),C163,RIGHT(C163,LEN(C163)-
-FIND("~",SUBSTITUTE(C163,"\","~",LEN(C163)-LEN(SUBSTITUTE(C163,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>MinorCode</v>
       </c>
       <c r="F163" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4565,12 +4432,11 @@
         <v>221</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(ISERROR(FIND("\",C164)),C164,RIGHT(C164,LEN(C164)-
-FIND("~",SUBSTITUTE(C164,"\","~",LEN(C164)-LEN(SUBSTITUTE(C164,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>MinorCode_coast</v>
       </c>
       <c r="F164" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,12 +4451,11 @@
         <v>221</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(ISERROR(FIND("\",C165)),C165,RIGHT(C165,LEN(C165)-
-FIND("~",SUBSTITUTE(C165,"\","~",LEN(C165)-LEN(SUBSTITUTE(C165,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU</v>
       </c>
       <c r="F165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4605,12 +4470,11 @@
         <v>221</v>
       </c>
       <c r="E166" t="str">
-        <f>IF(ISERROR(FIND("\",C166)),C166,RIGHT(C166,LEN(C166)-
-FIND("~",SUBSTITUTE(C166,"\","~",LEN(C166)-LEN(SUBSTITUTE(C166,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_coast</v>
       </c>
       <c r="F166" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4625,12 +4489,11 @@
         <v>221</v>
       </c>
       <c r="E167" t="str">
-        <f>IF(ISERROR(FIND("\",C167)),C167,RIGHT(C167,LEN(C167)-
-FIND("~",SUBSTITUTE(C167,"\","~",LEN(C167)-LEN(SUBSTITUTE(C167,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Caribou_herdcodes</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,12 +4508,11 @@
         <v>221</v>
       </c>
       <c r="E168" t="str">
-        <f>IF(ISERROR(FIND("\",C168)),C168,RIGHT(C168,LEN(C168)-
-FIND("~",SUBSTITUTE(C168,"\","~",LEN(C168)-LEN(SUBSTITUTE(C168,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Sheep_mtncodes</v>
       </c>
       <c r="F168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4665,12 +4527,11 @@
         <v>221</v>
       </c>
       <c r="E169" t="str">
-        <f>IF(ISERROR(FIND("\",C169)),C169,RIGHT(C169,LEN(C169)-
-FIND("~",SUBSTITUTE(C169,"\","~",LEN(C169)-LEN(SUBSTITUTE(C169,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_centroid</v>
       </c>
       <c r="F169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4685,12 +4546,11 @@
         <v>221</v>
       </c>
       <c r="E170" t="str">
-        <f>IF(ISERROR(FIND("\",C170)),C170,RIGHT(C170,LEN(C170)-
-FIND("~",SUBSTITUTE(C170,"\","~",LEN(C170)-LEN(SUBSTITUTE(C170,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_land</v>
       </c>
       <c r="F170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4705,12 +4565,11 @@
         <v>221</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(ISERROR(FIND("\",C171)),C171,RIGHT(C171,LEN(C171)-
-FIND("~",SUBSTITUTE(C171,"\","~",LEN(C171)-LEN(SUBSTITUTE(C171,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>UCU_water</v>
       </c>
       <c r="F171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4725,12 +4584,11 @@
         <v>221</v>
       </c>
       <c r="E172" t="str">
-        <f>IF(ISERROR(FIND("\",C172)),C172,RIGHT(C172,LEN(C172)-
-FIND("~",SUBSTITUTE(C172,"\","~",LEN(C172)-LEN(SUBSTITUTE(C172,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>SubunitsSqMiList</v>
       </c>
       <c r="F172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4745,12 +4603,11 @@
         <v>221</v>
       </c>
       <c r="E173" t="str">
-        <f>IF(ISERROR(FIND("\",C173)),C173,RIGHT(C173,LEN(C173)-
-FIND("~",SUBSTITUTE(C173,"\","~",LEN(C173)-LEN(SUBSTITUTE(C173,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>ActiveHunts</v>
       </c>
       <c r="F173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4765,12 +4622,11 @@
         <v>221</v>
       </c>
       <c r="E174" t="str">
-        <f>IF(ISERROR(FIND("\",C174)),C174,RIGHT(C174,LEN(C174)-
-FIND("~",SUBSTITUTE(C174,"\","~",LEN(C174)-LEN(SUBSTITUTE(C174,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Bison</v>
       </c>
       <c r="F174" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4785,12 +4641,11 @@
         <v>221</v>
       </c>
       <c r="E175" t="str">
-        <f>IF(ISERROR(FIND("\",C175)),C175,RIGHT(C175,LEN(C175)-
-FIND("~",SUBSTITUTE(C175,"\","~",LEN(C175)-LEN(SUBSTITUTE(C175,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>BlackBear</v>
       </c>
       <c r="F175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4805,12 +4660,11 @@
         <v>221</v>
       </c>
       <c r="E176" t="str">
-        <f>IF(ISERROR(FIND("\",C176)),C176,RIGHT(C176,LEN(C176)-
-FIND("~",SUBSTITUTE(C176,"\","~",LEN(C176)-LEN(SUBSTITUTE(C176,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>BrownBear</v>
       </c>
       <c r="F176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4825,12 +4679,11 @@
         <v>221</v>
       </c>
       <c r="E177" t="str">
-        <f>IF(ISERROR(FIND("\",C177)),C177,RIGHT(C177,LEN(C177)-
-FIND("~",SUBSTITUTE(C177,"\","~",LEN(C177)-LEN(SUBSTITUTE(C177,"\",""))))))</f>
+        <f t="shared" si="5"/>
         <v>Caribou</v>
       </c>
       <c r="F177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4845,12 +4698,12 @@
         <v>221</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(ISERROR(FIND("\",C178)),C178,RIGHT(C178,LEN(C178)-
+        <f t="shared" ref="E178:E214" si="6">IF(ISERROR(FIND("\",C178)),C178,RIGHT(C178,LEN(C178)-
 FIND("~",SUBSTITUTE(C178,"\","~",LEN(C178)-LEN(SUBSTITUTE(C178,"\",""))))))</f>
         <v>Deer</v>
       </c>
       <c r="F178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,12 +4718,11 @@
         <v>221</v>
       </c>
       <c r="E179" t="str">
-        <f>IF(ISERROR(FIND("\",C179)),C179,RIGHT(C179,LEN(C179)-
-FIND("~",SUBSTITUTE(C179,"\","~",LEN(C179)-LEN(SUBSTITUTE(C179,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Elk</v>
       </c>
       <c r="F179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4885,12 +4737,11 @@
         <v>221</v>
       </c>
       <c r="E180" t="str">
-        <f>IF(ISERROR(FIND("\",C180)),C180,RIGHT(C180,LEN(C180)-
-FIND("~",SUBSTITUTE(C180,"\","~",LEN(C180)-LEN(SUBSTITUTE(C180,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Moose</v>
       </c>
       <c r="F180" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4905,12 +4756,11 @@
         <v>221</v>
       </c>
       <c r="E181" t="str">
-        <f>IF(ISERROR(FIND("\",C181)),C181,RIGHT(C181,LEN(C181)-
-FIND("~",SUBSTITUTE(C181,"\","~",LEN(C181)-LEN(SUBSTITUTE(C181,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>MtGoat</v>
       </c>
       <c r="F181" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4925,12 +4775,11 @@
         <v>221</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(ISERROR(FIND("\",C182)),C182,RIGHT(C182,LEN(C182)-
-FIND("~",SUBSTITUTE(C182,"\","~",LEN(C182)-LEN(SUBSTITUTE(C182,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Muskox</v>
       </c>
       <c r="F182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,12 +4794,11 @@
         <v>221</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(ISERROR(FIND("\",C183)),C183,RIGHT(C183,LEN(C183)-
-FIND("~",SUBSTITUTE(C183,"\","~",LEN(C183)-LEN(SUBSTITUTE(C183,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Sheep</v>
       </c>
       <c r="F183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4965,12 +4813,11 @@
         <v>221</v>
       </c>
       <c r="E184" t="str">
-        <f>IF(ISERROR(FIND("\",C184)),C184,RIGHT(C184,LEN(C184)-
-FIND("~",SUBSTITUTE(C184,"\","~",LEN(C184)-LEN(SUBSTITUTE(C184,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Wolf</v>
       </c>
       <c r="F184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4985,12 +4832,11 @@
         <v>221</v>
       </c>
       <c r="E185" t="str">
-        <f>IF(ISERROR(FIND("\",C185)),C185,RIGHT(C185,LEN(C185)-
-FIND("~",SUBSTITUTE(C185,"\","~",LEN(C185)-LEN(SUBSTITUTE(C185,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Wolverine</v>
       </c>
       <c r="F185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5005,12 +4851,11 @@
         <v>221</v>
       </c>
       <c r="E186" t="str">
-        <f>IF(ISERROR(FIND("\",C186)),C186,RIGHT(C186,LEN(C186)-
-FIND("~",SUBSTITUTE(C186,"\","~",LEN(C186)-LEN(SUBSTITUTE(C186,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Goose</v>
       </c>
       <c r="F186" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5025,12 +4870,11 @@
         <v>221</v>
       </c>
       <c r="E187" t="str">
-        <f>IF(ISERROR(FIND("\",C187)),C187,RIGHT(C187,LEN(C187)-
-FIND("~",SUBSTITUTE(C187,"\","~",LEN(C187)-LEN(SUBSTITUTE(C187,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>GenSeason</v>
       </c>
       <c r="F187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,12 +4889,11 @@
         <v>221</v>
       </c>
       <c r="E188" t="str">
-        <f>IF(ISERROR(FIND("\",C188)),C188,RIGHT(C188,LEN(C188)-
-FIND("~",SUBSTITUTE(C188,"\","~",LEN(C188)-LEN(SUBSTITUTE(C188,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>GenSeasonHT</v>
       </c>
       <c r="F188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5065,12 +4908,11 @@
         <v>221</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(ISERROR(FIND("\",C189)),C189,RIGHT(C189,LEN(C189)-
-FIND("~",SUBSTITUTE(C189,"\","~",LEN(C189)-LEN(SUBSTITUTE(C189,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>GenSeasonNoHT</v>
       </c>
       <c r="F189" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5085,12 +4927,11 @@
         <v>221</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(ISERROR(FIND("\",C190)),C190,RIGHT(C190,LEN(C190)-
-FIND("~",SUBSTITUTE(C190,"\","~",LEN(C190)-LEN(SUBSTITUTE(C190,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>TierI</v>
       </c>
       <c r="F190" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,12 +4946,11 @@
         <v>221</v>
       </c>
       <c r="E191" t="str">
-        <f>IF(ISERROR(FIND("\",C191)),C191,RIGHT(C191,LEN(C191)-
-FIND("~",SUBSTITUTE(C191,"\","~",LEN(C191)-LEN(SUBSTITUTE(C191,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Drawing</v>
       </c>
       <c r="F191" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5125,12 +4965,11 @@
         <v>221</v>
       </c>
       <c r="E192" t="str">
-        <f>IF(ISERROR(FIND("\",C192)),C192,RIGHT(C192,LEN(C192)-
-FIND("~",SUBSTITUTE(C192,"\","~",LEN(C192)-LEN(SUBSTITUTE(C192,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Registration</v>
       </c>
       <c r="F192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5145,12 +4984,11 @@
         <v>221</v>
       </c>
       <c r="E193" t="str">
-        <f>IF(ISERROR(FIND("\",C193)),C193,RIGHT(C193,LEN(C193)-
-FIND("~",SUBSTITUTE(C193,"\","~",LEN(C193)-LEN(SUBSTITUTE(C193,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>TierII</v>
       </c>
       <c r="F193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5165,12 +5003,11 @@
         <v>221</v>
       </c>
       <c r="E194" t="str">
-        <f>IF(ISERROR(FIND("\",C194)),C194,RIGHT(C194,LEN(C194)-
-FIND("~",SUBSTITUTE(C194,"\","~",LEN(C194)-LEN(SUBSTITUTE(C194,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Waterfowl</v>
       </c>
       <c r="F194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5185,12 +5022,11 @@
         <v>221</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(ISERROR(FIND("\",C195)),C195,RIGHT(C195,LEN(C195)-
-FIND("~",SUBSTITUTE(C195,"\","~",LEN(C195)-LEN(SUBSTITUTE(C195,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Resident</v>
       </c>
       <c r="F195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5205,12 +5041,11 @@
         <v>221</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(ISERROR(FIND("\",C196)),C196,RIGHT(C196,LEN(C196)-
-FIND("~",SUBSTITUTE(C196,"\","~",LEN(C196)-LEN(SUBSTITUTE(C196,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>NonResident</v>
       </c>
       <c r="F196" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5225,12 +5060,11 @@
         <v>221</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(ISERROR(FIND("\",C197)),C197,RIGHT(C197,LEN(C197)-
-FIND("~",SUBSTITUTE(C197,"\","~",LEN(C197)-LEN(SUBSTITUTE(C197,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Closed</v>
       </c>
       <c r="F197" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5245,12 +5079,11 @@
         <v>221</v>
       </c>
       <c r="E198" t="str">
-        <f>IF(ISERROR(FIND("\",C198)),C198,RIGHT(C198,LEN(C198)-
-FIND("~",SUBSTITUTE(C198,"\","~",LEN(C198)-LEN(SUBSTITUTE(C198,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>PendingHunts</v>
       </c>
       <c r="F198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5265,12 +5098,11 @@
         <v>221</v>
       </c>
       <c r="E199" t="str">
-        <f>IF(ISERROR(FIND("\",C199)),C199,RIGHT(C199,LEN(C199)-
-FIND("~",SUBSTITUTE(C199,"\","~",LEN(C199)-LEN(SUBSTITUTE(C199,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Targeted</v>
       </c>
       <c r="F199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5287,12 +5119,11 @@
         <v>221</v>
       </c>
       <c r="E200" t="str">
-        <f>IF(ISERROR(FIND("\",C200)),C200,RIGHT(C200,LEN(C200)-
-FIND("~",SUBSTITUTE(C200,"\","~",LEN(C200)-LEN(SUBSTITUTE(C200,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>ClosedToHunting</v>
       </c>
       <c r="F200" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5309,12 +5140,11 @@
         <v>221</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(ISERROR(FIND("\",C201)),C201,RIGHT(C201,LEN(C201)-
-FIND("~",SUBSTITUTE(C201,"\","~",LEN(C201)-LEN(SUBSTITUTE(C201,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>ControlledUse</v>
       </c>
       <c r="F201" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5331,12 +5161,11 @@
         <v>221</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(ISERROR(FIND("\",C202)),C202,RIGHT(C202,LEN(C202)-
-FIND("~",SUBSTITUTE(C202,"\","~",LEN(C202)-LEN(SUBSTITUTE(C202,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Management</v>
       </c>
       <c r="F202" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5351,12 +5180,11 @@
         <v>221</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(ISERROR(FIND("\",C203)),C203,RIGHT(C203,LEN(C203)-
-FIND("~",SUBSTITUTE(C203,"\","~",LEN(C203)-LEN(SUBSTITUTE(C203,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>ClosedToTrapping</v>
       </c>
       <c r="F203" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5370,15 +5198,14 @@
         <v>242</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(ISERROR(FIND("\",C204)),C204,RIGHT(C204,LEN(C204)-
-FIND("~",SUBSTITUTE(C204,"\","~",LEN(C204)-LEN(SUBSTITUTE(C204,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>Ocean_py</v>
       </c>
       <c r="F204" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5392,37 +5219,32 @@
         <v>243</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E205" t="str">
-        <f>IF(ISERROR(FIND("\",C205)),C205,RIGHT(C205,LEN(C205)-
-FIND("~",SUBSTITUTE(C205,"\","~",LEN(C205)-LEN(SUBSTITUTE(C205,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>major_river</v>
       </c>
       <c r="F205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>245</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="6"/>
+        <v>arctic_circle</v>
+      </c>
+      <c r="F206" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C206" t="s">
-        <v>246</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E206" t="str">
-        <f>IF(ISERROR(FIND("\",C206)),C206,RIGHT(C206,LEN(C206)-
-FIND("~",SUBSTITUTE(C206,"\","~",LEN(C206)-LEN(SUBSTITUTE(C206,"\",""))))))</f>
-        <v>arctic_circle</v>
-      </c>
-      <c r="F206" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,21 +5252,20 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E207" t="str">
-        <f>IF(ISERROR(FIND("\",C207)),C207,RIGHT(C207,LEN(C207)-
-FIND("~",SUBSTITUTE(C207,"\","~",LEN(C207)-LEN(SUBSTITUTE(C207,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>dudded_impact_area</v>
       </c>
       <c r="F207" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5452,171 +5273,186 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="E208" t="str">
-        <f>IF(ISERROR(FIND("\",C208)),C208,RIGHT(C208,LEN(C208)-
-FIND("~",SUBSTITUTE(C208,"\","~",LEN(C208)-LEN(SUBSTITUTE(C208,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>simplecoast.shp</v>
       </c>
       <c r="F208" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D209" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(ISERROR(FIND("\",C209)),C209,RIGHT(C209,LEN(C209)-
-FIND("~",SUBSTITUTE(C209,"\","~",LEN(C209)-LEN(SUBSTITUTE(C209,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>akparks.gdb</v>
       </c>
       <c r="F209" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C210" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E210" t="str">
-        <f>IF(ISERROR(FIND("\",C210)),C210,RIGHT(C210,LEN(C210)-
-FIND("~",SUBSTITUTE(C210,"\","~",LEN(C210)-LEN(SUBSTITUTE(C210,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>AK_Refuges_poly.shp</v>
       </c>
       <c r="F210" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E211" t="str">
-        <f>IF(ISERROR(FIND("\",C211)),C211,RIGHT(C211,LEN(C211)-
-FIND("~",SUBSTITUTE(C211,"\","~",LEN(C211)-LEN(SUBSTITUTE(C211,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>LDA_dis.shp</v>
       </c>
       <c r="F211" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E212" t="str">
-        <f>IF(ISERROR(FIND("\",C212)),C212,RIGHT(C212,LEN(C212)-
-FIND("~",SUBSTITUTE(C212,"\","~",LEN(C212)-LEN(SUBSTITUTE(C212,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>minor_river</v>
       </c>
       <c r="F212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E213" t="str">
-        <f>IF(ISERROR(FIND("\",C213)),C213,RIGHT(C213,LEN(C213)-
-FIND("~",SUBSTITUTE(C213,"\","~",LEN(C213)-LEN(SUBSTITUTE(C213,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>major_roads</v>
       </c>
       <c r="F213" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E214" t="str">
-        <f>IF(ISERROR(FIND("\",C214)),C214,RIGHT(C214,LEN(C214)-
-FIND("~",SUBSTITUTE(C214,"\","~",LEN(C214)-LEN(SUBSTITUTE(C214,"\",""))))))</f>
+        <f t="shared" si="6"/>
         <v>minor_roads</v>
       </c>
       <c r="F214" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" ref="E215" si="7">IF(ISERROR(FIND("\",C215)),C215,RIGHT(C215,LEN(C215)-
+FIND("~",SUBSTITUTE(C215,"\","~",LEN(C215)-LEN(SUBSTITUTE(C215,"\",""))))))</f>
+        <v>arctic_circle.shp</v>
+      </c>
+      <c r="F215" t="s">
+        <v>267</v>
+      </c>
+      <c r="G215" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220"/>
     </row>
   </sheetData>
@@ -5625,7 +5461,10 @@
       <sortCondition ref="A1:A220"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C215" r:id="rId1" xr:uid="{FA2637EE-2D70-4D00-85F3-C9605A502824}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Y_inventory_working.xlsx
+++ b/data/Y_inventory_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AE597-D191-4850-A8A5-09BC6F7167EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835506F-BB9B-487A-8B78-453CD8343235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA5E6435-CCC8-4325-8D7B-F96E7D205BA8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="277">
   <si>
     <t>Y:\sde_wcgis_master (dfgjnusql-gi71p).sde\sde_wcgis_master.DBO.areanamesCurrent</t>
   </si>
@@ -792,9 +792,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Data_toStow\LDA_dis.shp</t>
-  </si>
-  <si>
     <t>AK parks</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>sub_coast</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Data_toStow\arctic_circle.shp</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -862,13 +856,25 @@
   </si>
   <si>
     <t>arctic_circle</t>
+  </si>
+  <si>
+    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Stow\arctic_circle.shp</t>
+  </si>
+  <si>
+    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Stow\LDA_dis.shp</t>
+  </si>
+  <si>
+    <t>Stow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stow </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,14 +886,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -910,19 +908,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1238,9 +1233,9 @@
   <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
+      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,10 +1264,10 @@
         <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,7 +1287,7 @@
         <v>areanamesCurrent</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,7 +1306,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1330,7 +1325,7 @@
         <v>SDE_compress_log</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1351,7 +1346,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,7 +1367,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1393,7 +1388,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1412,7 +1407,7 @@
         <v>DWCMasters_topology</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1433,7 +1428,7 @@
         <v>AK_SHADE</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1454,7 +1449,7 @@
         <v>DRG_ITM</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1475,7 +1470,7 @@
         <v>DRG_QM</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,7 +1489,7 @@
         <v>NED_AGREEDEM08</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1515,7 +1510,7 @@
         <v>NED_CLIP</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,7 +1529,7 @@
         <v>NED_FILLSINKS08</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1553,7 +1548,7 @@
         <v>NED_FLOWACC08</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,7 +1569,7 @@
         <v>NED_FLOWDIR08</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1595,7 +1590,7 @@
         <v>NED_HILLCLIP</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1614,7 +1609,7 @@
         <v>NED_HILLRAW</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1633,7 +1628,7 @@
         <v>NED_RAW</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1654,7 +1649,7 @@
         <v>NGS_ITM_HILLSHADE_DD</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1675,7 +1670,7 @@
         <v>NGS_ITM_TOPO_DD</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,7 +1689,7 @@
         <v>NHDWaterbodyToMeta</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1713,7 +1708,7 @@
         <v>NHDPointEventFCToMeta</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,7 +1727,7 @@
         <v>NHDPointToMeta</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1751,7 +1746,7 @@
         <v>NHDMetadataHasSourceCitation</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,7 +1765,7 @@
         <v>NHDMetaToFeature</v>
       </c>
       <c r="F26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,7 +1784,7 @@
         <v>NHDLineToMeta</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1808,7 +1803,7 @@
         <v>NHDLineEventFCToMeta</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1827,7 +1822,7 @@
         <v>NHDFlowlineToMeta</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,7 +1841,7 @@
         <v>NHDAreaToMeta</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,7 +1860,7 @@
         <v>NHDAreaEventFCToMeta</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,7 +1879,7 @@
         <v>NHDVerticalRelationship</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,7 +1898,7 @@
         <v>NHDSourceCitation</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,7 +1918,7 @@
         <v>NHDStatus</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,7 +1937,7 @@
         <v>NHDReachCode_ComID</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1961,7 +1956,7 @@
         <v>NHDReachCrossReference</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,7 +1975,7 @@
         <v>NHDProcessingParameters</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1999,7 +1994,7 @@
         <v>NHDMetadata</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2018,7 +2013,7 @@
         <v>NHDFlowlineVAA</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,7 +2032,7 @@
         <v>NHDFlow</v>
       </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,7 +2051,7 @@
         <v>NHDFeatureToMetadata</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2075,7 +2070,7 @@
         <v>NHDFCode</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2094,7 +2089,7 @@
         <v>HYDRO_NET_BUILDERR</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2113,7 +2108,7 @@
         <v>ExternalIDCrosswalk</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,7 +2127,7 @@
         <v>NGS_QM_ELEV_DD</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,7 +2148,7 @@
         <v>NGS_QM_TOPO_DD</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,7 +2167,7 @@
         <v>Russia</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2191,7 +2186,7 @@
         <v>AKLimitsDD</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2210,7 +2205,7 @@
         <v>AK_shore_63k</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2229,7 +2224,7 @@
         <v>Canada</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,7 +2245,7 @@
         <v>AK_coast_ITM</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2269,7 +2264,7 @@
         <v>Canada_Russia</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2287,7 +2282,7 @@
         <v>AKLimits</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,7 +2301,7 @@
         <v>canada_prov</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,7 +2320,7 @@
         <v>Admin_Large_Parcel</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2344,7 +2339,7 @@
         <v>StateLDA09</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,7 +2360,7 @@
         <v>placenames_AKGNIS</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,7 +2381,7 @@
         <v>placenames_orth</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2407,7 +2402,7 @@
         <v>dot_centerline_milepost</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2428,7 +2423,7 @@
         <v>rescomm</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2449,7 +2444,7 @@
         <v>dot_centerline_route</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2470,7 +2465,7 @@
         <v>simplgps_akhwys</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2489,7 +2484,7 @@
         <v>section_label</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2508,7 +2503,7 @@
         <v>ranges</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2527,7 +2522,7 @@
         <v>townships</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2549,7 +2544,7 @@
         <v>section_polygon</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2568,7 +2563,7 @@
         <v>section_arc</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2587,7 +2582,7 @@
         <v>township_bands</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,7 +2601,7 @@
         <v>township_node</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,7 +2620,7 @@
         <v>township_arc</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2644,7 +2639,7 @@
         <v>meridians</v>
       </c>
       <c r="F71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,7 +2658,7 @@
         <v>sections</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2682,7 +2677,7 @@
         <v>itmquads</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2701,7 +2696,7 @@
         <v>usgs25Kquads</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,7 +2715,7 @@
         <v>qmquads</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2739,7 +2734,7 @@
         <v>township_polygon</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2758,7 +2753,7 @@
         <v>protracted_pts</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,7 +2772,7 @@
         <v>township_label</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2796,7 +2791,7 @@
         <v>pro_pt</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2817,7 +2812,7 @@
         <v>township</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2836,7 +2831,7 @@
         <v>section</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2855,7 +2850,7 @@
         <v>TopoAreaFeature</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2874,7 +2869,7 @@
         <v>TransportationAreaFeature</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2893,7 +2888,7 @@
         <v>RadioRadarEquipmentFeature</v>
       </c>
       <c r="F84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,7 +2907,7 @@
         <v>BerthPointFeature</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2931,7 +2926,7 @@
         <v>SignalEquipmentFeature</v>
       </c>
       <c r="F86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,7 +2945,7 @@
         <v>BeaconFeature</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2969,7 +2964,7 @@
         <v>BerthLineFeature</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2988,7 +2983,7 @@
         <v>NavigationPointFeature</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3007,7 +3002,7 @@
         <v>UtilityAreaFeature</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,7 +3021,7 @@
         <v>CautionAreaFeature</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3045,7 +3040,7 @@
         <v>MagneticPointFeature</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3064,7 +3059,7 @@
         <v>FacilityPointFeature</v>
       </c>
       <c r="F93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,7 +3078,7 @@
         <v>DepthLineFeature</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3102,7 +3097,7 @@
         <v>GatePointFeature</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3121,7 +3116,7 @@
         <v>DockLineFeature</v>
       </c>
       <c r="F96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,7 +3135,7 @@
         <v>ControlMarkFeature</v>
       </c>
       <c r="F97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,7 +3155,7 @@
         <v>DepthAreaFeature</v>
       </c>
       <c r="F98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3179,7 +3174,7 @@
         <v>TransportationPointFeature</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3198,7 +3193,7 @@
         <v>DockAreaFeature</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,7 +3212,7 @@
         <v>TransportationLineFeature</v>
       </c>
       <c r="F101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,7 +3231,7 @@
         <v>UtilityLineFeature</v>
       </c>
       <c r="F102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3255,7 +3250,7 @@
         <v>NavigationLineFeature</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3274,7 +3269,7 @@
         <v>CoastlineFeature</v>
       </c>
       <c r="F104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3293,7 +3288,7 @@
         <v>RadioRadarSignalFeature</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3312,7 +3307,7 @@
         <v>FacilityLineFeature</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3331,7 +3326,7 @@
         <v>CoastlinePointFeature</v>
       </c>
       <c r="F107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3350,7 +3345,7 @@
         <v>RegulatedZoneLineFeature</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3369,7 +3364,7 @@
         <v>NavigationAreaFeature</v>
       </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3388,7 +3383,7 @@
         <v>FacilityAreaFeature</v>
       </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3407,7 +3402,7 @@
         <v>TopoPointFeature</v>
       </c>
       <c r="F111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3426,7 +3421,7 @@
         <v>UtilityPointFeature</v>
       </c>
       <c r="F112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3445,7 +3440,7 @@
         <v>NauticalPublicationFeature</v>
       </c>
       <c r="F113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3464,7 +3459,7 @@
         <v>CoastlineAreaFeature</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,7 +3478,7 @@
         <v>RegulatedZonePointFeature</v>
       </c>
       <c r="F115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3502,7 +3497,7 @@
         <v>BuoyFeature</v>
       </c>
       <c r="F116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3521,7 +3516,7 @@
         <v>LightStructureFeature</v>
       </c>
       <c r="F117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,7 +3535,7 @@
         <v>MagneticLineFeature</v>
       </c>
       <c r="F118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3559,7 +3554,7 @@
         <v>SurveyReliabilityFeature</v>
       </c>
       <c r="F119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3578,7 +3573,7 @@
         <v>CautionPointFeature</v>
       </c>
       <c r="F120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3597,7 +3592,7 @@
         <v>MagneticAreaFeature</v>
       </c>
       <c r="F121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3616,7 +3611,7 @@
         <v>RegulatedZoneAreaFeature</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3635,7 +3630,7 @@
         <v>BerthAreaFeature</v>
       </c>
       <c r="F123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,7 +3649,7 @@
         <v>TopoLineFeature</v>
       </c>
       <c r="F124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3673,7 +3668,7 @@
         <v>RadarRangeFeature</v>
       </c>
       <c r="F125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3692,7 +3687,7 @@
         <v>CautionLineFeature</v>
       </c>
       <c r="F126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3711,7 +3706,7 @@
         <v>MetaDataFeature</v>
       </c>
       <c r="F127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3730,7 +3725,7 @@
         <v>WBD_HU16</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3749,7 +3744,7 @@
         <v>WBD_HU10</v>
       </c>
       <c r="F129" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3769,7 +3764,7 @@
         <v>WBD_HU6</v>
       </c>
       <c r="F130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3788,7 +3783,7 @@
         <v>WBD_HU4</v>
       </c>
       <c r="F131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3807,7 +3802,7 @@
         <v>WBD_HU8</v>
       </c>
       <c r="F132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,7 +3821,7 @@
         <v>WBD_HU12</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3845,7 +3840,7 @@
         <v>WBD_HU14</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3864,7 +3859,7 @@
         <v>WBD_HU2</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,7 +3878,7 @@
         <v>NHDAreaEventFC</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3902,7 +3897,7 @@
         <v>NHDPointEventFC</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3921,7 +3916,7 @@
         <v>NHDLine</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3942,7 +3937,7 @@
         <v>NHDArea</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3961,7 +3956,7 @@
         <v>HYDRO_NET_Junctions</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3982,7 +3977,7 @@
         <v>NHDFlowline</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4001,7 +3996,7 @@
         <v>NHDLineEventFC</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4022,7 +4017,7 @@
         <v>NHDWaterbody</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4041,7 +4036,7 @@
         <v>NHDPoint</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4060,7 +4055,7 @@
         <v>HYDRO_NET</v>
       </c>
       <c r="F145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4080,7 +4075,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4099,7 +4094,7 @@
         <v>leftpoly</v>
       </c>
       <c r="F147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,7 +4113,7 @@
         <v>rightpoly</v>
       </c>
       <c r="F148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,7 +4134,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4160,7 +4155,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4181,7 +4176,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,7 +4195,7 @@
         <v>UCU_arc</v>
       </c>
       <c r="F152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4221,7 +4216,7 @@
         <v>Regions</v>
       </c>
       <c r="F153" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4240,7 +4235,7 @@
         <v>Regions_coast</v>
       </c>
       <c r="F154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4261,7 +4256,7 @@
         <v>GMU</v>
       </c>
       <c r="F155" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4280,7 +4275,7 @@
         <v>GMU_coast</v>
       </c>
       <c r="F156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4301,7 +4296,7 @@
         <v>Subunits</v>
       </c>
       <c r="F157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4309,7 +4304,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C158" t="s">
         <v>156</v>
@@ -4322,7 +4317,7 @@
         <v>Subunits_coast</v>
       </c>
       <c r="F158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4341,7 +4336,7 @@
         <v>MajorDrainage</v>
       </c>
       <c r="F159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,7 +4355,7 @@
         <v>MajorDrainage_coast</v>
       </c>
       <c r="F160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4379,7 +4374,7 @@
         <v>SubMajor</v>
       </c>
       <c r="F161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4398,7 +4393,7 @@
         <v>SubMajor_coast</v>
       </c>
       <c r="F162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4417,7 +4412,7 @@
         <v>MinorCode</v>
       </c>
       <c r="F163" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4436,7 +4431,7 @@
         <v>MinorCode_coast</v>
       </c>
       <c r="F164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4455,7 +4450,7 @@
         <v>UCU</v>
       </c>
       <c r="F165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4474,7 +4469,7 @@
         <v>UCU_coast</v>
       </c>
       <c r="F166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4493,7 +4488,7 @@
         <v>Caribou_herdcodes</v>
       </c>
       <c r="F167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4512,7 +4507,7 @@
         <v>Sheep_mtncodes</v>
       </c>
       <c r="F168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4531,7 +4526,7 @@
         <v>UCU_centroid</v>
       </c>
       <c r="F169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4550,7 +4545,7 @@
         <v>UCU_land</v>
       </c>
       <c r="F170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4569,7 +4564,7 @@
         <v>UCU_water</v>
       </c>
       <c r="F171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4588,7 +4583,7 @@
         <v>SubunitsSqMiList</v>
       </c>
       <c r="F172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4607,7 +4602,7 @@
         <v>ActiveHunts</v>
       </c>
       <c r="F173" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4626,7 +4621,7 @@
         <v>Bison</v>
       </c>
       <c r="F174" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,7 +4640,7 @@
         <v>BlackBear</v>
       </c>
       <c r="F175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4664,7 +4659,7 @@
         <v>BrownBear</v>
       </c>
       <c r="F176" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,7 +4678,7 @@
         <v>Caribou</v>
       </c>
       <c r="F177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,7 +4698,7 @@
         <v>Deer</v>
       </c>
       <c r="F178" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4722,7 +4717,7 @@
         <v>Elk</v>
       </c>
       <c r="F179" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4741,7 +4736,7 @@
         <v>Moose</v>
       </c>
       <c r="F180" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,7 +4755,7 @@
         <v>MtGoat</v>
       </c>
       <c r="F181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4779,7 +4774,7 @@
         <v>Muskox</v>
       </c>
       <c r="F182" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4798,7 +4793,7 @@
         <v>Sheep</v>
       </c>
       <c r="F183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4817,7 +4812,7 @@
         <v>Wolf</v>
       </c>
       <c r="F184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4836,7 +4831,7 @@
         <v>Wolverine</v>
       </c>
       <c r="F185" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4855,7 +4850,7 @@
         <v>Goose</v>
       </c>
       <c r="F186" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4874,7 +4869,7 @@
         <v>GenSeason</v>
       </c>
       <c r="F187" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4893,7 +4888,7 @@
         <v>GenSeasonHT</v>
       </c>
       <c r="F188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4912,7 +4907,7 @@
         <v>GenSeasonNoHT</v>
       </c>
       <c r="F189" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4931,7 +4926,7 @@
         <v>TierI</v>
       </c>
       <c r="F190" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4950,7 +4945,7 @@
         <v>Drawing</v>
       </c>
       <c r="F191" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4969,7 +4964,7 @@
         <v>Registration</v>
       </c>
       <c r="F192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4988,7 +4983,7 @@
         <v>TierII</v>
       </c>
       <c r="F193" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5007,7 +5002,7 @@
         <v>Waterfowl</v>
       </c>
       <c r="F194" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5026,7 +5021,7 @@
         <v>Resident</v>
       </c>
       <c r="F195" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,7 +5040,7 @@
         <v>NonResident</v>
       </c>
       <c r="F196" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5064,7 +5059,7 @@
         <v>Closed</v>
       </c>
       <c r="F197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,7 +5078,7 @@
         <v>PendingHunts</v>
       </c>
       <c r="F198" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5102,7 +5097,7 @@
         <v>Targeted</v>
       </c>
       <c r="F199" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,7 +5118,7 @@
         <v>ClosedToHunting</v>
       </c>
       <c r="F200" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5144,7 +5139,7 @@
         <v>ControlledUse</v>
       </c>
       <c r="F201" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5165,7 +5160,7 @@
         <v>Management</v>
       </c>
       <c r="F202" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5184,7 +5179,7 @@
         <v>ClosedToTrapping</v>
       </c>
       <c r="F203" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5205,7 +5200,7 @@
         <v>Ocean_py</v>
       </c>
       <c r="F204" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,7 +5221,7 @@
         <v>major_river</v>
       </c>
       <c r="F205" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5244,7 +5239,7 @@
         <v>arctic_circle</v>
       </c>
       <c r="F206" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5255,7 +5250,7 @@
         <v>247</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>248</v>
@@ -5265,7 +5260,7 @@
         <v>dudded_impact_area</v>
       </c>
       <c r="F207" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,7 +5271,7 @@
         <v>249</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>250</v>
@@ -5286,7 +5281,7 @@
         <v>simplecoast.shp</v>
       </c>
       <c r="F208" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5294,10 +5289,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>250</v>
@@ -5307,7 +5302,7 @@
         <v>akparks.gdb</v>
       </c>
       <c r="F209" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5315,10 +5310,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>250</v>
@@ -5328,7 +5323,7 @@
         <v>AK_Refuges_poly.shp</v>
       </c>
       <c r="F210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5336,20 +5331,20 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="6"/>
         <v>LDA_dis.shp</v>
       </c>
       <c r="F211" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -5357,10 +5352,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>246</v>
@@ -5370,7 +5365,7 @@
         <v>minor_river</v>
       </c>
       <c r="F212" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5378,10 +5373,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C213" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>246</v>
@@ -5391,7 +5386,7 @@
         <v>major_roads</v>
       </c>
       <c r="F213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5399,10 +5394,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>246</v>
@@ -5412,7 +5407,7 @@
         <v>minor_roads</v>
       </c>
       <c r="F214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5420,13 +5415,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" ref="E215" si="7">IF(ISERROR(FIND("\",C215)),C215,RIGHT(C215,LEN(C215)-
@@ -5434,10 +5429,10 @@
         <v>arctic_circle.shp</v>
       </c>
       <c r="F215" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G215" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,10 +5456,7 @@
       <sortCondition ref="A1:A220"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="C215" r:id="rId1" xr:uid="{FA2637EE-2D70-4D00-85F3-C9605A502824}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Y_inventory_working.xlsx
+++ b/data/Y_inventory_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835506F-BB9B-487A-8B78-453CD8343235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B79A31-1688-43DD-9CB2-E4947CB8DC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA5E6435-CCC8-4325-8D7B-F96E7D205BA8}"/>
   </bookViews>
@@ -795,9 +795,6 @@
     <t>AK parks</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISShare\boundaries\NPS\2017_akparks\akparks.gdb</t>
-  </si>
-  <si>
     <t>\\dfg.alaska.local\GIS\Anchorage\GISShare\Coastline\Alb154\simplecoast.shp</t>
   </si>
   <si>
@@ -868,13 +865,16 @@
   </si>
   <si>
     <t xml:space="preserve">Stow </t>
+  </si>
+  <si>
+    <t>\\dfg.alaska.local\gis\Anchorage\GISShare\boundaries\NPS\2017_akparks\akparks.gdb\NPS_boundary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +886,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -908,16 +916,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1233,9 +1244,9 @@
   <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,10 +1275,10 @@
         <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1287,7 +1298,7 @@
         <v>areanamesCurrent</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1306,7 +1317,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1325,7 +1336,7 @@
         <v>SDE_compress_log</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1346,7 +1357,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,7 +1378,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1388,7 +1399,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,7 +1418,7 @@
         <v>DWCMasters_topology</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1428,7 +1439,7 @@
         <v>AK_SHADE</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1449,7 +1460,7 @@
         <v>DRG_ITM</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1470,7 +1481,7 @@
         <v>DRG_QM</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1489,7 +1500,7 @@
         <v>NED_AGREEDEM08</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1510,7 +1521,7 @@
         <v>NED_CLIP</v>
       </c>
       <c r="F13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1529,7 +1540,7 @@
         <v>NED_FILLSINKS08</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1548,7 +1559,7 @@
         <v>NED_FLOWACC08</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,7 +1580,7 @@
         <v>NED_FLOWDIR08</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,7 +1601,7 @@
         <v>NED_HILLCLIP</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,7 +1620,7 @@
         <v>NED_HILLRAW</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1628,7 +1639,7 @@
         <v>NED_RAW</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,7 +1660,7 @@
         <v>NGS_ITM_HILLSHADE_DD</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,7 +1681,7 @@
         <v>NGS_ITM_TOPO_DD</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,7 +1700,7 @@
         <v>NHDWaterbodyToMeta</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,7 +1719,7 @@
         <v>NHDPointEventFCToMeta</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1727,7 +1738,7 @@
         <v>NHDPointToMeta</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,7 +1757,7 @@
         <v>NHDMetadataHasSourceCitation</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1765,7 +1776,7 @@
         <v>NHDMetaToFeature</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,7 +1795,7 @@
         <v>NHDLineToMeta</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,7 +1814,7 @@
         <v>NHDLineEventFCToMeta</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1822,7 +1833,7 @@
         <v>NHDFlowlineToMeta</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1841,7 +1852,7 @@
         <v>NHDAreaToMeta</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,7 +1871,7 @@
         <v>NHDAreaEventFCToMeta</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1879,7 +1890,7 @@
         <v>NHDVerticalRelationship</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,7 +1909,7 @@
         <v>NHDSourceCitation</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1918,7 +1929,7 @@
         <v>NHDStatus</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,7 +1948,7 @@
         <v>NHDReachCode_ComID</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,7 +1967,7 @@
         <v>NHDReachCrossReference</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,7 +1986,7 @@
         <v>NHDProcessingParameters</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1994,7 +2005,7 @@
         <v>NHDMetadata</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2013,7 +2024,7 @@
         <v>NHDFlowlineVAA</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,7 +2043,7 @@
         <v>NHDFlow</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2051,7 +2062,7 @@
         <v>NHDFeatureToMetadata</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,7 +2081,7 @@
         <v>NHDFCode</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,7 +2100,7 @@
         <v>HYDRO_NET_BUILDERR</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2108,7 +2119,7 @@
         <v>ExternalIDCrosswalk</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2127,7 +2138,7 @@
         <v>NGS_QM_ELEV_DD</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2148,7 +2159,7 @@
         <v>NGS_QM_TOPO_DD</v>
       </c>
       <c r="F46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,7 +2178,7 @@
         <v>Russia</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,7 +2197,7 @@
         <v>AKLimitsDD</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2205,7 +2216,7 @@
         <v>AK_shore_63k</v>
       </c>
       <c r="F49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2224,7 +2235,7 @@
         <v>Canada</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,7 +2256,7 @@
         <v>AK_coast_ITM</v>
       </c>
       <c r="F51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2264,7 +2275,7 @@
         <v>Canada_Russia</v>
       </c>
       <c r="F52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,7 +2293,7 @@
         <v>AKLimits</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,7 +2312,7 @@
         <v>canada_prov</v>
       </c>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,7 +2331,7 @@
         <v>Admin_Large_Parcel</v>
       </c>
       <c r="F55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2339,7 +2350,7 @@
         <v>StateLDA09</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,7 +2371,7 @@
         <v>placenames_AKGNIS</v>
       </c>
       <c r="F57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,7 +2392,7 @@
         <v>placenames_orth</v>
       </c>
       <c r="F58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,7 +2413,7 @@
         <v>dot_centerline_milepost</v>
       </c>
       <c r="F59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,7 +2434,7 @@
         <v>rescomm</v>
       </c>
       <c r="F60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2444,7 +2455,7 @@
         <v>dot_centerline_route</v>
       </c>
       <c r="F61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2465,7 +2476,7 @@
         <v>simplgps_akhwys</v>
       </c>
       <c r="F62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2484,7 +2495,7 @@
         <v>section_label</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,7 +2514,7 @@
         <v>ranges</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,7 +2533,7 @@
         <v>townships</v>
       </c>
       <c r="F65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2544,7 +2555,7 @@
         <v>section_polygon</v>
       </c>
       <c r="F66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,7 +2574,7 @@
         <v>section_arc</v>
       </c>
       <c r="F67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,7 +2593,7 @@
         <v>township_bands</v>
       </c>
       <c r="F68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2601,7 +2612,7 @@
         <v>township_node</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,7 +2631,7 @@
         <v>township_arc</v>
       </c>
       <c r="F70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2639,7 +2650,7 @@
         <v>meridians</v>
       </c>
       <c r="F71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2658,7 +2669,7 @@
         <v>sections</v>
       </c>
       <c r="F72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2677,7 +2688,7 @@
         <v>itmquads</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2696,7 +2707,7 @@
         <v>usgs25Kquads</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2715,7 +2726,7 @@
         <v>qmquads</v>
       </c>
       <c r="F75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2734,7 +2745,7 @@
         <v>township_polygon</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2753,7 +2764,7 @@
         <v>protracted_pts</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,7 +2783,7 @@
         <v>township_label</v>
       </c>
       <c r="F78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2791,7 +2802,7 @@
         <v>pro_pt</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2812,7 +2823,7 @@
         <v>township</v>
       </c>
       <c r="F80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2831,7 +2842,7 @@
         <v>section</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,7 +2861,7 @@
         <v>TopoAreaFeature</v>
       </c>
       <c r="F82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2869,7 +2880,7 @@
         <v>TransportationAreaFeature</v>
       </c>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2888,7 +2899,7 @@
         <v>RadioRadarEquipmentFeature</v>
       </c>
       <c r="F84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2907,7 +2918,7 @@
         <v>BerthPointFeature</v>
       </c>
       <c r="F85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,7 +2937,7 @@
         <v>SignalEquipmentFeature</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,7 +2956,7 @@
         <v>BeaconFeature</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +2975,7 @@
         <v>BerthLineFeature</v>
       </c>
       <c r="F88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,7 +2994,7 @@
         <v>NavigationPointFeature</v>
       </c>
       <c r="F89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,7 +3013,7 @@
         <v>UtilityAreaFeature</v>
       </c>
       <c r="F90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3021,7 +3032,7 @@
         <v>CautionAreaFeature</v>
       </c>
       <c r="F91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,7 +3051,7 @@
         <v>MagneticPointFeature</v>
       </c>
       <c r="F92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,7 +3070,7 @@
         <v>FacilityPointFeature</v>
       </c>
       <c r="F93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3078,7 +3089,7 @@
         <v>DepthLineFeature</v>
       </c>
       <c r="F94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,7 +3108,7 @@
         <v>GatePointFeature</v>
       </c>
       <c r="F95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3116,7 +3127,7 @@
         <v>DockLineFeature</v>
       </c>
       <c r="F96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3135,7 +3146,7 @@
         <v>ControlMarkFeature</v>
       </c>
       <c r="F97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,7 +3166,7 @@
         <v>DepthAreaFeature</v>
       </c>
       <c r="F98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3174,7 +3185,7 @@
         <v>TransportationPointFeature</v>
       </c>
       <c r="F99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3193,7 +3204,7 @@
         <v>DockAreaFeature</v>
       </c>
       <c r="F100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,7 +3223,7 @@
         <v>TransportationLineFeature</v>
       </c>
       <c r="F101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,7 +3242,7 @@
         <v>UtilityLineFeature</v>
       </c>
       <c r="F102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,7 +3261,7 @@
         <v>NavigationLineFeature</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3269,7 +3280,7 @@
         <v>CoastlineFeature</v>
       </c>
       <c r="F104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3288,7 +3299,7 @@
         <v>RadioRadarSignalFeature</v>
       </c>
       <c r="F105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3307,7 +3318,7 @@
         <v>FacilityLineFeature</v>
       </c>
       <c r="F106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3326,7 +3337,7 @@
         <v>CoastlinePointFeature</v>
       </c>
       <c r="F107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,7 +3356,7 @@
         <v>RegulatedZoneLineFeature</v>
       </c>
       <c r="F108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3364,7 +3375,7 @@
         <v>NavigationAreaFeature</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,7 +3394,7 @@
         <v>FacilityAreaFeature</v>
       </c>
       <c r="F110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3402,7 +3413,7 @@
         <v>TopoPointFeature</v>
       </c>
       <c r="F111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3421,7 +3432,7 @@
         <v>UtilityPointFeature</v>
       </c>
       <c r="F112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3440,7 +3451,7 @@
         <v>NauticalPublicationFeature</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3459,7 +3470,7 @@
         <v>CoastlineAreaFeature</v>
       </c>
       <c r="F114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3478,7 +3489,7 @@
         <v>RegulatedZonePointFeature</v>
       </c>
       <c r="F115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3497,7 +3508,7 @@
         <v>BuoyFeature</v>
       </c>
       <c r="F116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3516,7 +3527,7 @@
         <v>LightStructureFeature</v>
       </c>
       <c r="F117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3535,7 +3546,7 @@
         <v>MagneticLineFeature</v>
       </c>
       <c r="F118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3554,7 +3565,7 @@
         <v>SurveyReliabilityFeature</v>
       </c>
       <c r="F119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3573,7 +3584,7 @@
         <v>CautionPointFeature</v>
       </c>
       <c r="F120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3592,7 +3603,7 @@
         <v>MagneticAreaFeature</v>
       </c>
       <c r="F121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3611,7 +3622,7 @@
         <v>RegulatedZoneAreaFeature</v>
       </c>
       <c r="F122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3630,7 +3641,7 @@
         <v>BerthAreaFeature</v>
       </c>
       <c r="F123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3649,7 +3660,7 @@
         <v>TopoLineFeature</v>
       </c>
       <c r="F124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3668,7 +3679,7 @@
         <v>RadarRangeFeature</v>
       </c>
       <c r="F125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3687,7 +3698,7 @@
         <v>CautionLineFeature</v>
       </c>
       <c r="F126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3706,7 +3717,7 @@
         <v>MetaDataFeature</v>
       </c>
       <c r="F127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,7 +3736,7 @@
         <v>WBD_HU16</v>
       </c>
       <c r="F128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3744,7 +3755,7 @@
         <v>WBD_HU10</v>
       </c>
       <c r="F129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3764,7 +3775,7 @@
         <v>WBD_HU6</v>
       </c>
       <c r="F130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3783,7 +3794,7 @@
         <v>WBD_HU4</v>
       </c>
       <c r="F131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3802,7 +3813,7 @@
         <v>WBD_HU8</v>
       </c>
       <c r="F132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3821,7 +3832,7 @@
         <v>WBD_HU12</v>
       </c>
       <c r="F133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3840,7 +3851,7 @@
         <v>WBD_HU14</v>
       </c>
       <c r="F134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3859,7 +3870,7 @@
         <v>WBD_HU2</v>
       </c>
       <c r="F135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3878,7 +3889,7 @@
         <v>NHDAreaEventFC</v>
       </c>
       <c r="F136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3897,7 +3908,7 @@
         <v>NHDPointEventFC</v>
       </c>
       <c r="F137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3916,7 +3927,7 @@
         <v>NHDLine</v>
       </c>
       <c r="F138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3937,7 +3948,7 @@
         <v>NHDArea</v>
       </c>
       <c r="F139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3956,7 +3967,7 @@
         <v>HYDRO_NET_Junctions</v>
       </c>
       <c r="F140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3977,7 +3988,7 @@
         <v>NHDFlowline</v>
       </c>
       <c r="F141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3996,7 +4007,7 @@
         <v>NHDLineEventFC</v>
       </c>
       <c r="F142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4017,7 +4028,7 @@
         <v>NHDWaterbody</v>
       </c>
       <c r="F143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4036,7 +4047,7 @@
         <v>NHDPoint</v>
       </c>
       <c r="F144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4055,7 +4066,7 @@
         <v>HYDRO_NET</v>
       </c>
       <c r="F145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,7 +4086,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4094,7 +4105,7 @@
         <v>leftpoly</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4113,7 +4124,7 @@
         <v>rightpoly</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4134,7 +4145,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4155,7 +4166,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4176,7 +4187,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,7 +4206,7 @@
         <v>UCU_arc</v>
       </c>
       <c r="F152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4216,7 +4227,7 @@
         <v>Regions</v>
       </c>
       <c r="F153" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4235,7 +4246,7 @@
         <v>Regions_coast</v>
       </c>
       <c r="F154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,7 +4267,7 @@
         <v>GMU</v>
       </c>
       <c r="F155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,7 +4286,7 @@
         <v>GMU_coast</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,7 +4307,7 @@
         <v>Subunits</v>
       </c>
       <c r="F157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4304,7 +4315,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s">
         <v>156</v>
@@ -4317,7 +4328,7 @@
         <v>Subunits_coast</v>
       </c>
       <c r="F158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4336,7 +4347,7 @@
         <v>MajorDrainage</v>
       </c>
       <c r="F159" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,7 +4366,7 @@
         <v>MajorDrainage_coast</v>
       </c>
       <c r="F160" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4374,7 +4385,7 @@
         <v>SubMajor</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4393,7 +4404,7 @@
         <v>SubMajor_coast</v>
       </c>
       <c r="F162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4412,7 +4423,7 @@
         <v>MinorCode</v>
       </c>
       <c r="F163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,7 +4442,7 @@
         <v>MinorCode_coast</v>
       </c>
       <c r="F164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4450,7 +4461,7 @@
         <v>UCU</v>
       </c>
       <c r="F165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4469,7 +4480,7 @@
         <v>UCU_coast</v>
       </c>
       <c r="F166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4488,7 +4499,7 @@
         <v>Caribou_herdcodes</v>
       </c>
       <c r="F167" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4507,7 +4518,7 @@
         <v>Sheep_mtncodes</v>
       </c>
       <c r="F168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4526,7 +4537,7 @@
         <v>UCU_centroid</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4545,7 +4556,7 @@
         <v>UCU_land</v>
       </c>
       <c r="F170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4564,7 +4575,7 @@
         <v>UCU_water</v>
       </c>
       <c r="F171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,7 +4594,7 @@
         <v>SubunitsSqMiList</v>
       </c>
       <c r="F172" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4602,7 +4613,7 @@
         <v>ActiveHunts</v>
       </c>
       <c r="F173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4621,7 +4632,7 @@
         <v>Bison</v>
       </c>
       <c r="F174" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4640,7 +4651,7 @@
         <v>BlackBear</v>
       </c>
       <c r="F175" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4659,7 +4670,7 @@
         <v>BrownBear</v>
       </c>
       <c r="F176" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,7 +4689,7 @@
         <v>Caribou</v>
       </c>
       <c r="F177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4698,7 +4709,7 @@
         <v>Deer</v>
       </c>
       <c r="F178" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,7 +4728,7 @@
         <v>Elk</v>
       </c>
       <c r="F179" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4736,7 +4747,7 @@
         <v>Moose</v>
       </c>
       <c r="F180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4755,7 +4766,7 @@
         <v>MtGoat</v>
       </c>
       <c r="F181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4774,7 +4785,7 @@
         <v>Muskox</v>
       </c>
       <c r="F182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4793,7 +4804,7 @@
         <v>Sheep</v>
       </c>
       <c r="F183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4812,7 +4823,7 @@
         <v>Wolf</v>
       </c>
       <c r="F184" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4831,7 +4842,7 @@
         <v>Wolverine</v>
       </c>
       <c r="F185" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4850,7 +4861,7 @@
         <v>Goose</v>
       </c>
       <c r="F186" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4869,7 +4880,7 @@
         <v>GenSeason</v>
       </c>
       <c r="F187" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4888,7 +4899,7 @@
         <v>GenSeasonHT</v>
       </c>
       <c r="F188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4907,7 +4918,7 @@
         <v>GenSeasonNoHT</v>
       </c>
       <c r="F189" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4926,7 +4937,7 @@
         <v>TierI</v>
       </c>
       <c r="F190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,7 +4956,7 @@
         <v>Drawing</v>
       </c>
       <c r="F191" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4964,7 +4975,7 @@
         <v>Registration</v>
       </c>
       <c r="F192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +4994,7 @@
         <v>TierII</v>
       </c>
       <c r="F193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,7 +5013,7 @@
         <v>Waterfowl</v>
       </c>
       <c r="F194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5021,7 +5032,7 @@
         <v>Resident</v>
       </c>
       <c r="F195" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5040,7 +5051,7 @@
         <v>NonResident</v>
       </c>
       <c r="F196" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5059,7 +5070,7 @@
         <v>Closed</v>
       </c>
       <c r="F197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5078,7 +5089,7 @@
         <v>PendingHunts</v>
       </c>
       <c r="F198" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5097,7 +5108,7 @@
         <v>Targeted</v>
       </c>
       <c r="F199" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5118,7 +5129,7 @@
         <v>ClosedToHunting</v>
       </c>
       <c r="F200" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5139,7 +5150,7 @@
         <v>ControlledUse</v>
       </c>
       <c r="F201" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,7 +5171,7 @@
         <v>Management</v>
       </c>
       <c r="F202" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5179,7 +5190,7 @@
         <v>ClosedToTrapping</v>
       </c>
       <c r="F203" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,7 +5211,7 @@
         <v>Ocean_py</v>
       </c>
       <c r="F204" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5221,7 +5232,7 @@
         <v>major_river</v>
       </c>
       <c r="F205" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,7 +5250,7 @@
         <v>arctic_circle</v>
       </c>
       <c r="F206" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5250,7 +5261,7 @@
         <v>247</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>248</v>
@@ -5260,7 +5271,7 @@
         <v>dudded_impact_area</v>
       </c>
       <c r="F207" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5271,7 +5282,7 @@
         <v>249</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>250</v>
@@ -5281,7 +5292,7 @@
         <v>simplecoast.shp</v>
       </c>
       <c r="F208" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5291,18 +5302,18 @@
       <c r="B209" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>252</v>
+      <c r="C209" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="6"/>
-        <v>akparks.gdb</v>
+        <v>NPS_boundary</v>
       </c>
       <c r="F209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5310,10 +5321,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C210" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>250</v>
@@ -5323,7 +5334,7 @@
         <v>AK_Refuges_poly.shp</v>
       </c>
       <c r="F210" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5331,20 +5342,20 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="6"/>
         <v>LDA_dis.shp</v>
       </c>
       <c r="F211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -5352,10 +5363,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C212" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>246</v>
@@ -5365,7 +5376,7 @@
         <v>minor_river</v>
       </c>
       <c r="F212" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5373,10 +5384,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C213" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>246</v>
@@ -5386,7 +5397,7 @@
         <v>major_roads</v>
       </c>
       <c r="F213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5394,10 +5405,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>246</v>
@@ -5407,7 +5418,7 @@
         <v>minor_roads</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5415,13 +5426,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="D215" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" ref="E215" si="7">IF(ISERROR(FIND("\",C215)),C215,RIGHT(C215,LEN(C215)-
@@ -5429,10 +5440,10 @@
         <v>arctic_circle.shp</v>
       </c>
       <c r="F215" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G215" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -5456,7 +5467,10 @@
       <sortCondition ref="A1:A220"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C209" r:id="rId1" xr:uid="{139087B7-AB1F-4300-91E6-B1159305B677}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Y_inventory_working.xlsx
+++ b/data/Y_inventory_working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B79A31-1688-43DD-9CB2-E4947CB8DC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F264D34-36BC-4561-875D-249B736E4649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA5E6435-CCC8-4325-8D7B-F96E7D205BA8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="287">
   <si>
     <t>Y:\sde_wcgis_master (dfgjnusql-gi71p).sde\sde_wcgis_master.DBO.areanamesCurrent</t>
   </si>
@@ -765,66 +765,27 @@
     <t>Ocean_py</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\WATER.gdb\Ocean_py</t>
-  </si>
-  <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\WATER.gdb\major_river</t>
-  </si>
-  <si>
     <t>rivers_maj</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\ARCTIC_CIRCLE.mdb\arctic_circle</t>
-  </si>
-  <si>
-    <t>AK_BASE</t>
-  </si>
-  <si>
     <t>impactAreas</t>
   </si>
   <si>
-    <t>MILITARY_AREAS</t>
-  </si>
-  <si>
     <t>Ak coast simp</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>AK parks</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISShare\Coastline\Alb154\simplecoast.shp</t>
-  </si>
-  <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISShare\MILITARY AREAS\MILITARY_AREAS.gdb\dudded_impact_area</t>
-  </si>
-  <si>
-    <t>LDAs_dis</t>
-  </si>
-  <si>
-    <t>\\dfg.alaska.local\gis\Anchorage\GISShare\boundaries\USFWS_Refuges\AK_Refuges_poly.shp</t>
-  </si>
-  <si>
     <t>AK_refuges</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\WATER.gdb\minor_river</t>
-  </si>
-  <si>
     <t>rivers_min</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\INFRASTRUCTURE.gdb\ROADS\major_roads</t>
-  </si>
-  <si>
     <t>roads_maj</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\AK_BASE\INFRASTRUCTURE.gdb\ROADS\minor_roads</t>
-  </si>
-  <si>
     <t>roads_min</t>
   </si>
   <si>
@@ -837,37 +798,106 @@
     <t>fgdb</t>
   </si>
   <si>
-    <t>pgdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shape </t>
-  </si>
-  <si>
     <t>sub_coast</t>
   </si>
   <si>
     <t>comments</t>
   </si>
   <si>
-    <t xml:space="preserve">AK_BASE version casues errors </t>
-  </si>
-  <si>
     <t>arctic_circle</t>
   </si>
   <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Stow\arctic_circle.shp</t>
-  </si>
-  <si>
-    <t>\\dfg.alaska.local\GIS\Anchorage\GISStaff\wc\MUMM\Stow\LDA_dis.shp</t>
-  </si>
-  <si>
-    <t>Stow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stow </t>
-  </si>
-  <si>
-    <t>\\dfg.alaska.local\gis\Anchorage\GISShare\boundaries\NPS\2017_akparks\akparks.gdb\NPS_boundary</t>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.arctic_circle</t>
+  </si>
+  <si>
+    <t>imported  to common 2/5/21</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.Chugach_NF_Trails</t>
+  </si>
+  <si>
+    <t>Chugach_NF_Trails</t>
+  </si>
+  <si>
+    <t>Chugach_SP_Trails</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.Chugach_SP_Trails</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.crowpasstrail</t>
+  </si>
+  <si>
+    <t>crowpasstrail</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.dudded_impact_area</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.major_roads</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.minor_roads</t>
+  </si>
+  <si>
+    <t>railroads</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.railroad</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.rextrail</t>
+  </si>
+  <si>
+    <t>RS2477_Trails</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.RS2477_Trails</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>NPS_Boundary</t>
+  </si>
+  <si>
+    <t>AK_Coast_250K</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.ADFG_logo_2001_transparent</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Boundaries\sde_common.DBO.Legislatively_Designated_Area_Py</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Boundaries\sde_common.DBO.NPS_Boundary</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Coastlines\sde_common.DBO.AK_coast_250K</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Coastlines\sde_common.DBO.simplecoast</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Hydrography_Albers\sde_common.DBO.minor_river</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Hydrography_Albers\sde_common.DBO.major_river</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Coastlines_Albers\sde_common.DBO.Ocean_py</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Boundaries\sde_common.DBO.FWSApproved</t>
+  </si>
+  <si>
+    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.Boundaries\sde_common.DBO.State_Park_Boundary</t>
   </si>
 </sst>
 </file>
@@ -891,9 +921,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,19 +944,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1241,21 +1267,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839E316-BE17-4D06-9A89-F663D4A5EC12}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="109.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1275,10 +1301,10 @@
         <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,7 +1324,7 @@
         <v>areanamesCurrent</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1317,7 +1343,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,7 +1362,7 @@
         <v>SDE_compress_log</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1357,7 +1383,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1378,7 +1404,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1399,7 +1425,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,7 +1444,7 @@
         <v>DWCMasters_topology</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,7 +1465,7 @@
         <v>AK_SHADE</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,7 +1486,7 @@
         <v>DRG_ITM</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1481,7 +1507,7 @@
         <v>DRG_QM</v>
       </c>
       <c r="F11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,7 +1526,7 @@
         <v>NED_AGREEDEM08</v>
       </c>
       <c r="F12" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,7 +1547,7 @@
         <v>NED_CLIP</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1540,7 +1566,7 @@
         <v>NED_FILLSINKS08</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1559,7 +1585,7 @@
         <v>NED_FLOWACC08</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,7 +1606,7 @@
         <v>NED_FLOWDIR08</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1601,7 +1627,7 @@
         <v>NED_HILLCLIP</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,7 +1646,7 @@
         <v>NED_HILLRAW</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,7 +1665,7 @@
         <v>NED_RAW</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,7 +1686,7 @@
         <v>NGS_ITM_HILLSHADE_DD</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,7 +1707,7 @@
         <v>NGS_ITM_TOPO_DD</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1700,7 +1726,7 @@
         <v>NHDWaterbodyToMeta</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1719,7 +1745,7 @@
         <v>NHDPointEventFCToMeta</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,7 +1764,7 @@
         <v>NHDPointToMeta</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,7 +1783,7 @@
         <v>NHDMetadataHasSourceCitation</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1776,7 +1802,7 @@
         <v>NHDMetaToFeature</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1795,7 +1821,7 @@
         <v>NHDLineToMeta</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1814,7 +1840,7 @@
         <v>NHDLineEventFCToMeta</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1833,7 +1859,7 @@
         <v>NHDFlowlineToMeta</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,7 +1878,7 @@
         <v>NHDAreaToMeta</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1871,7 +1897,7 @@
         <v>NHDAreaEventFCToMeta</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,7 +1916,7 @@
         <v>NHDVerticalRelationship</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,7 +1935,7 @@
         <v>NHDSourceCitation</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,7 +1955,7 @@
         <v>NHDStatus</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1948,7 +1974,7 @@
         <v>NHDReachCode_ComID</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,7 +1993,7 @@
         <v>NHDReachCrossReference</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,7 +2012,7 @@
         <v>NHDProcessingParameters</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2005,7 +2031,7 @@
         <v>NHDMetadata</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,7 +2050,7 @@
         <v>NHDFlowlineVAA</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,7 +2069,7 @@
         <v>NHDFlow</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2062,7 +2088,7 @@
         <v>NHDFeatureToMetadata</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2081,7 +2107,7 @@
         <v>NHDFCode</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,7 +2126,7 @@
         <v>HYDRO_NET_BUILDERR</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2119,7 +2145,7 @@
         <v>ExternalIDCrosswalk</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2138,7 +2164,7 @@
         <v>NGS_QM_ELEV_DD</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,7 +2185,7 @@
         <v>NGS_QM_TOPO_DD</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2178,7 +2204,7 @@
         <v>Russia</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,7 +2223,7 @@
         <v>AKLimitsDD</v>
       </c>
       <c r="F48" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,7 +2242,7 @@
         <v>AK_shore_63k</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2235,7 +2261,7 @@
         <v>Canada</v>
       </c>
       <c r="F50" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2256,7 +2282,7 @@
         <v>AK_coast_ITM</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,7 +2301,7 @@
         <v>Canada_Russia</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2293,7 +2319,7 @@
         <v>AKLimits</v>
       </c>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,7 +2338,7 @@
         <v>canada_prov</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,7 +2357,7 @@
         <v>Admin_Large_Parcel</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,7 +2376,7 @@
         <v>StateLDA09</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2371,7 +2397,7 @@
         <v>placenames_AKGNIS</v>
       </c>
       <c r="F57" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,7 +2418,7 @@
         <v>placenames_orth</v>
       </c>
       <c r="F58" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2413,7 +2439,7 @@
         <v>dot_centerline_milepost</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,7 +2460,7 @@
         <v>rescomm</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,7 +2481,7 @@
         <v>dot_centerline_route</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2476,7 +2502,7 @@
         <v>simplgps_akhwys</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2495,7 +2521,7 @@
         <v>section_label</v>
       </c>
       <c r="F63" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,7 +2540,7 @@
         <v>ranges</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2533,7 +2559,7 @@
         <v>townships</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2555,7 +2581,7 @@
         <v>section_polygon</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,7 +2600,7 @@
         <v>section_arc</v>
       </c>
       <c r="F67" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2593,7 +2619,7 @@
         <v>township_bands</v>
       </c>
       <c r="F68" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,7 +2638,7 @@
         <v>township_node</v>
       </c>
       <c r="F69" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2657,7 @@
         <v>township_arc</v>
       </c>
       <c r="F70" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,7 +2676,7 @@
         <v>meridians</v>
       </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2669,7 +2695,7 @@
         <v>sections</v>
       </c>
       <c r="F72" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2688,7 +2714,7 @@
         <v>itmquads</v>
       </c>
       <c r="F73" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,7 +2733,7 @@
         <v>usgs25Kquads</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,7 +2752,7 @@
         <v>qmquads</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2745,7 +2771,7 @@
         <v>township_polygon</v>
       </c>
       <c r="F76" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2764,7 +2790,7 @@
         <v>protracted_pts</v>
       </c>
       <c r="F77" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,7 +2809,7 @@
         <v>township_label</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2802,7 +2828,7 @@
         <v>pro_pt</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,7 +2849,7 @@
         <v>township</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,7 +2868,7 @@
         <v>section</v>
       </c>
       <c r="F81" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2861,7 +2887,7 @@
         <v>TopoAreaFeature</v>
       </c>
       <c r="F82" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,7 +2906,7 @@
         <v>TransportationAreaFeature</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2899,7 +2925,7 @@
         <v>RadioRadarEquipmentFeature</v>
       </c>
       <c r="F84" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,7 +2944,7 @@
         <v>BerthPointFeature</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,7 +2963,7 @@
         <v>SignalEquipmentFeature</v>
       </c>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2956,7 +2982,7 @@
         <v>BeaconFeature</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2975,7 +3001,7 @@
         <v>BerthLineFeature</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2994,7 +3020,7 @@
         <v>NavigationPointFeature</v>
       </c>
       <c r="F89" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,7 +3039,7 @@
         <v>UtilityAreaFeature</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,7 +3058,7 @@
         <v>CautionAreaFeature</v>
       </c>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,7 +3077,7 @@
         <v>MagneticPointFeature</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3070,7 +3096,7 @@
         <v>FacilityPointFeature</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3089,7 +3115,7 @@
         <v>DepthLineFeature</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3108,7 +3134,7 @@
         <v>GatePointFeature</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3127,7 +3153,7 @@
         <v>DockLineFeature</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3146,7 +3172,7 @@
         <v>ControlMarkFeature</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3166,7 +3192,7 @@
         <v>DepthAreaFeature</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,7 +3211,7 @@
         <v>TransportationPointFeature</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3204,7 +3230,7 @@
         <v>DockAreaFeature</v>
       </c>
       <c r="F100" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,7 +3249,7 @@
         <v>TransportationLineFeature</v>
       </c>
       <c r="F101" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3242,7 +3268,7 @@
         <v>UtilityLineFeature</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3261,7 +3287,7 @@
         <v>NavigationLineFeature</v>
       </c>
       <c r="F103" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,7 +3306,7 @@
         <v>CoastlineFeature</v>
       </c>
       <c r="F104" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3299,7 +3325,7 @@
         <v>RadioRadarSignalFeature</v>
       </c>
       <c r="F105" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3318,7 +3344,7 @@
         <v>FacilityLineFeature</v>
       </c>
       <c r="F106" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3337,7 +3363,7 @@
         <v>CoastlinePointFeature</v>
       </c>
       <c r="F107" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3356,7 +3382,7 @@
         <v>RegulatedZoneLineFeature</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,7 +3401,7 @@
         <v>NavigationAreaFeature</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3394,7 +3420,7 @@
         <v>FacilityAreaFeature</v>
       </c>
       <c r="F110" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3413,7 +3439,7 @@
         <v>TopoPointFeature</v>
       </c>
       <c r="F111" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3432,7 +3458,7 @@
         <v>UtilityPointFeature</v>
       </c>
       <c r="F112" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3451,7 +3477,7 @@
         <v>NauticalPublicationFeature</v>
       </c>
       <c r="F113" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3470,7 +3496,7 @@
         <v>CoastlineAreaFeature</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3489,7 +3515,7 @@
         <v>RegulatedZonePointFeature</v>
       </c>
       <c r="F115" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3508,7 +3534,7 @@
         <v>BuoyFeature</v>
       </c>
       <c r="F116" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3527,7 +3553,7 @@
         <v>LightStructureFeature</v>
       </c>
       <c r="F117" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3546,7 +3572,7 @@
         <v>MagneticLineFeature</v>
       </c>
       <c r="F118" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3565,7 +3591,7 @@
         <v>SurveyReliabilityFeature</v>
       </c>
       <c r="F119" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3584,7 +3610,7 @@
         <v>CautionPointFeature</v>
       </c>
       <c r="F120" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,7 +3629,7 @@
         <v>MagneticAreaFeature</v>
       </c>
       <c r="F121" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3622,7 +3648,7 @@
         <v>RegulatedZoneAreaFeature</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3641,7 +3667,7 @@
         <v>BerthAreaFeature</v>
       </c>
       <c r="F123" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3660,7 +3686,7 @@
         <v>TopoLineFeature</v>
       </c>
       <c r="F124" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3679,7 +3705,7 @@
         <v>RadarRangeFeature</v>
       </c>
       <c r="F125" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3698,7 +3724,7 @@
         <v>CautionLineFeature</v>
       </c>
       <c r="F126" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3717,7 +3743,7 @@
         <v>MetaDataFeature</v>
       </c>
       <c r="F127" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3736,7 +3762,7 @@
         <v>WBD_HU16</v>
       </c>
       <c r="F128" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3755,7 +3781,7 @@
         <v>WBD_HU10</v>
       </c>
       <c r="F129" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,7 +3801,7 @@
         <v>WBD_HU6</v>
       </c>
       <c r="F130" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3794,7 +3820,7 @@
         <v>WBD_HU4</v>
       </c>
       <c r="F131" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3813,7 +3839,7 @@
         <v>WBD_HU8</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3832,7 +3858,7 @@
         <v>WBD_HU12</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3851,7 +3877,7 @@
         <v>WBD_HU14</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,7 +3896,7 @@
         <v>WBD_HU2</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3889,7 +3915,7 @@
         <v>NHDAreaEventFC</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3908,7 +3934,7 @@
         <v>NHDPointEventFC</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3927,7 +3953,7 @@
         <v>NHDLine</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3948,7 +3974,7 @@
         <v>NHDArea</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3967,7 +3993,7 @@
         <v>HYDRO_NET_Junctions</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3988,7 +4014,7 @@
         <v>NHDFlowline</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4007,7 +4033,7 @@
         <v>NHDLineEventFC</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4028,7 +4054,7 @@
         <v>NHDWaterbody</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4047,7 +4073,7 @@
         <v>NHDPoint</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4066,7 +4092,7 @@
         <v>HYDRO_NET</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4086,7 +4112,7 @@
         <v>gmu_links</v>
       </c>
       <c r="F146" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4105,7 +4131,7 @@
         <v>leftpoly</v>
       </c>
       <c r="F147" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4124,7 +4150,7 @@
         <v>rightpoly</v>
       </c>
       <c r="F148" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4145,7 +4171,7 @@
         <v>UCU_poly</v>
       </c>
       <c r="F149" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,7 +4192,7 @@
         <v>DWCHunts</v>
       </c>
       <c r="F150" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4187,7 +4213,7 @@
         <v>SpecialAreas</v>
       </c>
       <c r="F151" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,7 +4232,7 @@
         <v>UCU_arc</v>
       </c>
       <c r="F152" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4227,7 +4253,7 @@
         <v>Regions</v>
       </c>
       <c r="F153" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4246,7 +4272,7 @@
         <v>Regions_coast</v>
       </c>
       <c r="F154" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4267,7 +4293,7 @@
         <v>GMU</v>
       </c>
       <c r="F155" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4286,7 +4312,7 @@
         <v>GMU_coast</v>
       </c>
       <c r="F156" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4307,7 +4333,7 @@
         <v>Subunits</v>
       </c>
       <c r="F157" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4315,7 +4341,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C158" t="s">
         <v>156</v>
@@ -4328,7 +4354,7 @@
         <v>Subunits_coast</v>
       </c>
       <c r="F158" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4347,7 +4373,7 @@
         <v>MajorDrainage</v>
       </c>
       <c r="F159" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4366,7 +4392,7 @@
         <v>MajorDrainage_coast</v>
       </c>
       <c r="F160" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4385,7 +4411,7 @@
         <v>SubMajor</v>
       </c>
       <c r="F161" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4404,7 +4430,7 @@
         <v>SubMajor_coast</v>
       </c>
       <c r="F162" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,7 +4449,7 @@
         <v>MinorCode</v>
       </c>
       <c r="F163" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4442,7 +4468,7 @@
         <v>MinorCode_coast</v>
       </c>
       <c r="F164" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4461,7 +4487,7 @@
         <v>UCU</v>
       </c>
       <c r="F165" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4480,7 +4506,7 @@
         <v>UCU_coast</v>
       </c>
       <c r="F166" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4499,7 +4525,7 @@
         <v>Caribou_herdcodes</v>
       </c>
       <c r="F167" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4518,7 +4544,7 @@
         <v>Sheep_mtncodes</v>
       </c>
       <c r="F168" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4537,7 +4563,7 @@
         <v>UCU_centroid</v>
       </c>
       <c r="F169" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4556,7 +4582,7 @@
         <v>UCU_land</v>
       </c>
       <c r="F170" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,7 +4601,7 @@
         <v>UCU_water</v>
       </c>
       <c r="F171" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,7 +4620,7 @@
         <v>SubunitsSqMiList</v>
       </c>
       <c r="F172" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4613,7 +4639,7 @@
         <v>ActiveHunts</v>
       </c>
       <c r="F173" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4632,7 +4658,7 @@
         <v>Bison</v>
       </c>
       <c r="F174" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4651,7 +4677,7 @@
         <v>BlackBear</v>
       </c>
       <c r="F175" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4670,7 +4696,7 @@
         <v>BrownBear</v>
       </c>
       <c r="F176" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4689,7 +4715,7 @@
         <v>Caribou</v>
       </c>
       <c r="F177" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4704,12 +4730,12 @@
         <v>221</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" ref="E178:E214" si="6">IF(ISERROR(FIND("\",C178)),C178,RIGHT(C178,LEN(C178)-
+        <f t="shared" ref="E178:E213" si="6">IF(ISERROR(FIND("\",C178)),C178,RIGHT(C178,LEN(C178)-
 FIND("~",SUBSTITUTE(C178,"\","~",LEN(C178)-LEN(SUBSTITUTE(C178,"\",""))))))</f>
         <v>Deer</v>
       </c>
       <c r="F178" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4728,7 +4754,7 @@
         <v>Elk</v>
       </c>
       <c r="F179" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4747,7 +4773,7 @@
         <v>Moose</v>
       </c>
       <c r="F180" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,7 +4792,7 @@
         <v>MtGoat</v>
       </c>
       <c r="F181" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4785,7 +4811,7 @@
         <v>Muskox</v>
       </c>
       <c r="F182" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4804,7 +4830,7 @@
         <v>Sheep</v>
       </c>
       <c r="F183" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,7 +4849,7 @@
         <v>Wolf</v>
       </c>
       <c r="F184" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4842,7 +4868,7 @@
         <v>Wolverine</v>
       </c>
       <c r="F185" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4861,7 +4887,7 @@
         <v>Goose</v>
       </c>
       <c r="F186" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4880,7 +4906,7 @@
         <v>GenSeason</v>
       </c>
       <c r="F187" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4899,7 +4925,7 @@
         <v>GenSeasonHT</v>
       </c>
       <c r="F188" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4918,7 +4944,7 @@
         <v>GenSeasonNoHT</v>
       </c>
       <c r="F189" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,7 +4963,7 @@
         <v>TierI</v>
       </c>
       <c r="F190" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,7 +4982,7 @@
         <v>Drawing</v>
       </c>
       <c r="F191" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4975,10 +5001,10 @@
         <v>Registration</v>
       </c>
       <c r="F192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4994,10 +5020,10 @@
         <v>TierII</v>
       </c>
       <c r="F193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5013,10 +5039,10 @@
         <v>Waterfowl</v>
       </c>
       <c r="F194" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5032,10 +5058,10 @@
         <v>Resident</v>
       </c>
       <c r="F195" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5051,10 +5077,10 @@
         <v>NonResident</v>
       </c>
       <c r="F196" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5070,10 +5096,10 @@
         <v>Closed</v>
       </c>
       <c r="F197" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5089,10 +5115,10 @@
         <v>PendingHunts</v>
       </c>
       <c r="F198" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5108,10 +5134,10 @@
         <v>Targeted</v>
       </c>
       <c r="F199" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5129,10 +5155,10 @@
         <v>ClosedToHunting</v>
       </c>
       <c r="F200" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5150,10 +5176,10 @@
         <v>ControlledUse</v>
       </c>
       <c r="F201" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5171,10 +5197,10 @@
         <v>Management</v>
       </c>
       <c r="F202" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5190,109 +5216,124 @@
         <v>ClosedToTrapping</v>
       </c>
       <c r="F203" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>242</v>
+      <c r="C204" t="s">
+        <v>284</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="6"/>
-        <v>Ocean_py</v>
+        <v>sde_common.DBO.Ocean_py</v>
       </c>
       <c r="F204" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="6"/>
-        <v>major_river</v>
+        <v>sde_common.DBO.major_river</v>
       </c>
       <c r="F205" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="C206" t="s">
-        <v>245</v>
+      <c r="B206" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="6"/>
-        <v>arctic_circle</v>
+        <v>sde_common.DBO.arctic_circle</v>
       </c>
       <c r="F206" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="C207" t="s">
+        <v>264</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="6"/>
-        <v>dudded_impact_area</v>
+        <v>sde_common.DBO.dudded_impact_area</v>
       </c>
       <c r="F207" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="C208" t="s">
+        <v>281</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="6"/>
-        <v>simplecoast.shp</v>
+        <v>sde_common.DBO.simplecoast</v>
       </c>
       <c r="F208" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5300,20 +5341,20 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>276</v>
+        <v>245</v>
+      </c>
+      <c r="C209" t="s">
+        <v>286</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="6"/>
-        <v>NPS_boundary</v>
+        <v>sde_common.DBO.State_Park_Boundary</v>
       </c>
       <c r="F209" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5321,156 +5362,344 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="6"/>
-        <v>AK_Refuges_poly.shp</v>
+        <v>sde_common.DBO.FWSApproved</v>
       </c>
       <c r="F210" t="s">
-        <v>267</v>
+        <v>251</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="6"/>
-        <v>LDA_dis.shp</v>
+        <v>sde_common.DBO.minor_river</v>
       </c>
       <c r="F211" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C212" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="6"/>
-        <v>minor_river</v>
+        <v>sde_common.DBO.major_roads</v>
       </c>
       <c r="F212" t="s">
-        <v>265</v>
+        <v>251</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C213" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="6"/>
-        <v>major_roads</v>
+        <v>sde_common.DBO.minor_roads</v>
       </c>
       <c r="F213" t="s">
-        <v>265</v>
+        <v>251</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="6"/>
-        <v>minor_roads</v>
+        <f t="shared" ref="E214:E221" si="7">IF(ISERROR(FIND("\",C214)),C214,RIGHT(C214,LEN(C214)-
+FIND("~",SUBSTITUTE(C214,"\","~",LEN(C214)-LEN(SUBSTITUTE(C214,"\",""))))))</f>
+        <v>sde_common.DBO.Chugach_NF_Trails</v>
       </c>
       <c r="F214" t="s">
-        <v>265</v>
+        <v>251</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C215" t="s">
+        <v>261</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.Chugach_SP_Trails</v>
+      </c>
+      <c r="F215" t="s">
+        <v>251</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>217</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C216" t="s">
+        <v>262</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.crowpasstrail</v>
+      </c>
+      <c r="F216" t="s">
+        <v>251</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>221</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C217" t="s">
+        <v>268</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.railroad</v>
+      </c>
+      <c r="F217" t="s">
+        <v>251</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>222</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C218" t="s">
+        <v>270</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.rextrail</v>
+      </c>
+      <c r="F218" t="s">
+        <v>251</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>223</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C219" t="s">
         <v>272</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D219" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.RS2477_Trails</v>
+      </c>
+      <c r="F219" t="s">
+        <v>251</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>225</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" t="s">
+        <v>278</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.Legislatively_Designated_Area_Py</v>
+      </c>
+      <c r="F220" t="s">
+        <v>251</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>226</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E215" t="str">
-        <f t="shared" ref="E215" si="7">IF(ISERROR(FIND("\",C215)),C215,RIGHT(C215,LEN(C215)-
-FIND("~",SUBSTITUTE(C215,"\","~",LEN(C215)-LEN(SUBSTITUTE(C215,"\",""))))))</f>
-        <v>arctic_circle.shp</v>
-      </c>
-      <c r="F215" t="s">
-        <v>265</v>
-      </c>
-      <c r="G215" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220"/>
+      <c r="C221" t="s">
+        <v>279</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="7"/>
+        <v>sde_common.DBO.NPS_Boundary</v>
+      </c>
+      <c r="F221" t="s">
+        <v>251</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>228</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" t="s">
+        <v>280</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" ref="E222:E223" si="8">IF(ISERROR(FIND("\",C222)),C222,RIGHT(C222,LEN(C222)-
+FIND("~",SUBSTITUTE(C222,"\","~",LEN(C222)-LEN(SUBSTITUTE(C222,"\",""))))))</f>
+        <v>sde_common.DBO.AK_coast_250K</v>
+      </c>
+      <c r="F222" t="s">
+        <v>251</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>231</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" t="s">
+        <v>277</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="8"/>
+        <v>sde_common.DBO.ADFG_logo_2001_transparent</v>
+      </c>
+      <c r="F223" t="s">
+        <v>251</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F220" xr:uid="{E3DA9AB2-34A2-4E46-B8BF-4D56B82CD0F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F220">
-      <sortCondition ref="A1:A220"/>
+  <autoFilter ref="A1:F223" xr:uid="{E3DA9AB2-34A2-4E46-B8BF-4D56B82CD0F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F216">
+      <sortCondition ref="A1:A216"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="C209" r:id="rId1" xr:uid="{139087B7-AB1F-4300-91E6-B1159305B677}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Y_inventory_working.xlsx
+++ b/data/Y_inventory_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\updateDataSources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F264D34-36BC-4561-875D-249B736E4649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EF6EF-5CE7-46F9-AF32-472B68BC08EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CA5E6435-CCC8-4325-8D7B-F96E7D205BA8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="285">
   <si>
     <t>Y:\sde_wcgis_master (dfgjnusql-gi71p).sde\sde_wcgis_master.DBO.areanamesCurrent</t>
   </si>
@@ -823,12 +823,6 @@
   </si>
   <si>
     <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.Chugach_SP_Trails</t>
-  </si>
-  <si>
-    <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.crowpasstrail</t>
-  </si>
-  <si>
-    <t>crowpasstrail</t>
   </si>
   <si>
     <t>Y:\sde_common (dfgjnusql-gi71p).sde\sde_common.DBO.BaseFeatures\sde_common.DBO.dudded_impact_area</t>
@@ -1267,12 +1261,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839E316-BE17-4D06-9A89-F663D4A5EC12}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A216" sqref="A216:XFD216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5227,7 +5221,7 @@
         <v>241</v>
       </c>
       <c r="C204" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>220</v>
@@ -5251,7 +5245,7 @@
         <v>242</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>220</v>
@@ -5299,7 +5293,7 @@
         <v>243</v>
       </c>
       <c r="C207" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>220</v>
@@ -5323,7 +5317,7 @@
         <v>244</v>
       </c>
       <c r="C208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>220</v>
@@ -5344,7 +5338,7 @@
         <v>245</v>
       </c>
       <c r="C209" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>220</v>
@@ -5365,7 +5359,7 @@
         <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>220</v>
@@ -5389,7 +5383,7 @@
         <v>247</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>220</v>
@@ -5410,7 +5404,7 @@
         <v>248</v>
       </c>
       <c r="C212" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>220</v>
@@ -5434,7 +5428,7 @@
         <v>249</v>
       </c>
       <c r="C213" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>220</v>
@@ -5464,7 +5458,7 @@
         <v>220</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" ref="E214:E221" si="7">IF(ISERROR(FIND("\",C214)),C214,RIGHT(C214,LEN(C214)-
+        <f t="shared" ref="E214:E220" si="7">IF(ISERROR(FIND("\",C214)),C214,RIGHT(C214,LEN(C214)-
 FIND("~",SUBSTITUTE(C214,"\","~",LEN(C214)-LEN(SUBSTITUTE(C214,"\",""))))))</f>
         <v>sde_common.DBO.Chugach_NF_Trails</v>
       </c>
@@ -5501,20 +5495,20 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C216" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="7"/>
-        <v>sde_common.DBO.crowpasstrail</v>
+        <v>sde_common.DBO.railroad</v>
       </c>
       <c r="F216" t="s">
         <v>251</v>
@@ -5525,7 +5519,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>267</v>
@@ -5538,7 +5532,7 @@
       </c>
       <c r="E217" t="str">
         <f t="shared" si="7"/>
-        <v>sde_common.DBO.railroad</v>
+        <v>sde_common.DBO.rextrail</v>
       </c>
       <c r="F217" t="s">
         <v>251</v>
@@ -5549,7 +5543,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>269</v>
@@ -5562,7 +5556,7 @@
       </c>
       <c r="E218" t="str">
         <f t="shared" si="7"/>
-        <v>sde_common.DBO.rextrail</v>
+        <v>sde_common.DBO.RS2477_Trails</v>
       </c>
       <c r="F218" t="s">
         <v>251</v>
@@ -5573,20 +5567,20 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C219" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="7"/>
-        <v>sde_common.DBO.RS2477_Trails</v>
+        <v>sde_common.DBO.Legislatively_Designated_Area_Py</v>
       </c>
       <c r="F219" t="s">
         <v>251</v>
@@ -5597,20 +5591,20 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="7"/>
-        <v>sde_common.DBO.Legislatively_Designated_Area_Py</v>
+        <v>sde_common.DBO.NPS_Boundary</v>
       </c>
       <c r="F220" t="s">
         <v>251</v>
@@ -5621,20 +5615,21 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C221" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="7"/>
-        <v>sde_common.DBO.NPS_Boundary</v>
+        <f t="shared" ref="E221:E222" si="8">IF(ISERROR(FIND("\",C221)),C221,RIGHT(C221,LEN(C221)-
+FIND("~",SUBSTITUTE(C221,"\","~",LEN(C221)-LEN(SUBSTITUTE(C221,"\",""))))))</f>
+        <v>sde_common.DBO.AK_coast_250K</v>
       </c>
       <c r="F221" t="s">
         <v>251</v>
@@ -5645,21 +5640,20 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C222" t="s">
         <v>275</v>
       </c>
-      <c r="C222" t="s">
-        <v>280</v>
-      </c>
       <c r="D222" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" ref="E222:E223" si="8">IF(ISERROR(FIND("\",C222)),C222,RIGHT(C222,LEN(C222)-
-FIND("~",SUBSTITUTE(C222,"\","~",LEN(C222)-LEN(SUBSTITUTE(C222,"\",""))))))</f>
-        <v>sde_common.DBO.AK_coast_250K</v>
+        <f t="shared" si="8"/>
+        <v>sde_common.DBO.ADFG_logo_2001_transparent</v>
       </c>
       <c r="F222" t="s">
         <v>251</v>
@@ -5668,34 +5662,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>231</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C223" t="s">
-        <v>277</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E223" t="str">
-        <f t="shared" si="8"/>
-        <v>sde_common.DBO.ADFG_logo_2001_transparent</v>
-      </c>
-      <c r="F223" t="s">
-        <v>251</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F223" xr:uid="{E3DA9AB2-34A2-4E46-B8BF-4D56B82CD0F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F216">
-      <sortCondition ref="A1:A216"/>
+  <autoFilter ref="A1:F222" xr:uid="{E3DA9AB2-34A2-4E46-B8BF-4D56B82CD0F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F215">
+      <sortCondition ref="A1:A215"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
